--- a/Design docs/soil porosity and fc-wp.xlsx
+++ b/Design docs/soil porosity and fc-wp.xlsx
@@ -2156,11 +2156,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203825664"/>
-        <c:axId val="181381376"/>
+        <c:axId val="52982272"/>
+        <c:axId val="139310720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203825664"/>
+        <c:axId val="52982272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,7 +2169,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181381376"/>
+        <c:crossAx val="139310720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2177,7 +2177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181381376"/>
+        <c:axId val="139310720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2191,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203825664"/>
+        <c:crossAx val="52982272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2342,8 +2342,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184192512"/>
-        <c:axId val="181384832"/>
+        <c:axId val="50914304"/>
+        <c:axId val="53191808"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2455,11 +2455,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203828736"/>
-        <c:axId val="181385408"/>
+        <c:axId val="52985344"/>
+        <c:axId val="53192384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184192512"/>
+        <c:axId val="50914304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181384832"/>
+        <c:crossAx val="53191808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2476,7 +2476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181384832"/>
+        <c:axId val="53191808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,12 +2487,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184192512"/>
+        <c:crossAx val="50914304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181385408"/>
+        <c:axId val="53192384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,12 +2502,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203828736"/>
+        <c:crossAx val="52985344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="203828736"/>
+        <c:axId val="52985344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,7 +2516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181385408"/>
+        <c:crossAx val="53192384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2670,11 +2670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204456448"/>
-        <c:axId val="181386560"/>
+        <c:axId val="53043712"/>
+        <c:axId val="53194112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204456448"/>
+        <c:axId val="53043712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,7 +2683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181386560"/>
+        <c:crossAx val="53194112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2691,7 +2691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181386560"/>
+        <c:axId val="53194112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +2702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204456448"/>
+        <c:crossAx val="53043712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2770,361 +2770,361 @@
                   <c:v>5.0403717347117247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1746847159638154</c:v>
+                  <c:v>4.0219403413301693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5123283088300532</c:v>
+                  <c:v>3.3931842952111375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9906753793041143</c:v>
+                  <c:v>2.8954546015928488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5706099621628811</c:v>
+                  <c:v>2.4930460090793325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2263619485574253</c:v>
+                  <c:v>2.1622084821626637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9402233700777116</c:v>
+                  <c:v>1.886495705528247</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6996032486385613</c:v>
+                  <c:v>1.6541392948807327</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4952918546839478</c:v>
+                  <c:v>1.4564852902315455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3203899782414679</c:v>
+                  <c:v>1.2870214191537264</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1696227677051798</c:v>
+                  <c:v>1.1407492316626102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0388855516657256</c:v>
+                  <c:v>1.0137659402265184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92493472306361235</c:v>
+                  <c:v>0.90297829359727833</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82517219026078836</c:v>
+                  <c:v>0.80590212278911721</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.73749183459925161</c:v>
+                  <c:v>0.72051895918798925</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66016804973177656</c:v>
+                  <c:v>0.64517156519908314</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.59114024011594113</c:v>
+                  <c:v>0.57771180250652809</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5293300450185543</c:v>
+                  <c:v>0.51730569782993208</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.47398278368664365</c:v>
+                  <c:v>0.46321571386675875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.42442268551649071</c:v>
+                  <c:v>0.41478143092796904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.38004463913212361</c:v>
+                  <c:v>0.37141148344579011</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.34030680418814291</c:v>
+                  <c:v>0.33257633960802452</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.30472399568958475</c:v>
+                  <c:v>0.29780183596077703</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.27286176005369855</c:v>
+                  <c:v>0.26666338803937401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.24433107058443204</c:v>
+                  <c:v>0.23878080634131299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.21878357759323414</c:v>
+                  <c:v>0.21381365434608932</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.19590735517181745</c:v>
+                  <c:v>0.19145709190495871</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1754230926864756</c:v>
+                  <c:v>0.17143815324988915</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.15708068449343646</c:v>
+                  <c:v>0.15351241417749345</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1406561762368744</c:v>
+                  <c:v>0.13746100771543179</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.12594903044495809</c:v>
+                  <c:v>0.12308795183361991</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11277967803781591</c:v>
+                  <c:v>0.1102177565725401</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.10098732585219809</c:v>
+                  <c:v>9.8693281372528807E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.0427993413480415E-2</c:v>
+                  <c:v>8.8373816442784123E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.0972754984683773E-2</c:v>
+                  <c:v>7.9133364744287366E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.2506165428549763E-2</c:v>
+                  <c:v>7.0859103610249552E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.4924850662999314E-2</c:v>
+                  <c:v>6.345000722101328E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.813624549993094E-2</c:v>
+                  <c:v>5.6815613114308043E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.205746345681455E-2</c:v>
+                  <c:v>5.0874917670390492E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.6614284741879425E-2</c:v>
+                  <c:v>4.5555387086321987E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.1740250056547128E-2</c:v>
+                  <c:v>4.0792071763733985E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.7375849150760643E-2</c:v>
+                  <c:v>3.6526813297065433E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3467794223750548E-2</c:v>
+                  <c:v>3.2707534379875502E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.9968369298721768E-2</c:v>
+                  <c:v>2.9287602959239902E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.6834847627550663E-2</c:v>
+                  <c:v>2.6225262874778429E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.4028970012211721E-2</c:v>
+                  <c:v>2.3483124030614314E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.1516477673417751E-2</c:v>
+                  <c:v>2.1027705875450824E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.9266693962970864E-2</c:v>
+                  <c:v>1.882902861680703E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.725214981267028E-2</c:v>
+                  <c:v>1.6860247178292962E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.5448248346646973E-2</c:v>
+                  <c:v>1.5097323430662229E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.3832964562156679E-2</c:v>
+                  <c:v>1.3518732694706877E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2386576412037699E-2</c:v>
+                  <c:v>1.2105200932488583E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.109142400545023E-2</c:v>
+                  <c:v>1.0839469418113291E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.9316939868165279E-3</c:v>
+                  <c:v>9.70608401475378E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8.8932264603083754E-3</c:v>
+                  <c:v>8.6912064850735594E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.96334210249648E-3</c:v>
+                  <c:v>7.7824455312114601E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.1306873522697664E-3</c:v>
+                  <c:v>6.9687055013926934E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.3850957878451931E-3</c:v>
+                  <c:v>6.2400509159209654E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.7174639983313246E-3</c:v>
+                  <c:v>5.5875851584635955E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.1196404342819957E-3</c:v>
+                  <c:v>5.0033418514942611E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.5843258801427341E-3</c:v>
+                  <c:v>4.4801875896240736E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.1049843333956426E-3</c:v>
+                  <c:v>4.0117348432279938E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.6757632022657791E-3</c:v>
+                  <c:v>3.5922639689559797E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.2914218476334887E-3</c:v>
+                  <c:v>3.2166533748963833E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.9472675966723595E-3</c:v>
+                  <c:v>2.8803169877402906E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.6390984469646548E-3</c:v>
+                  <c:v>2.5791482584388535E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.3631517615282757E-3</c:v>
+                  <c:v>2.3094700226820955E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.1160583283420138E-3</c:v>
+                  <c:v>2.0679896040162161E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.8948012234516489E-3</c:v>
+                  <c:v>1.8517586114202885E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.6966789753887455E-3</c:v>
+                  <c:v>1.658136940490254E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.5192725811530642E-3</c:v>
+                  <c:v>1.4847605386910491E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3604159710383318E-3</c:v>
+                  <c:v>1.3295125411072457E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.2181695616804618E-3</c:v>
+                  <c:v>1.1904974242643359E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0907965744270201E-3</c:v>
+                  <c:v>1.0660178624565418E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.7674182988183073E-4</c:v>
+                  <c:v>9.5455400399395451E-4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.7461275970893788E-4</c:v>
+                  <c:v>8.5474491434973964E-4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.831624038648875E-4</c:v>
+                  <c:v>7.653719596274703E-4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.0127418565429889E-4</c:v>
+                  <c:v>6.8534392746794342E-4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.2794827871975867E-4</c:v>
+                  <c:v>6.1368370373271594E-4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.6228939951503216E-4</c:v>
+                  <c:v>5.4951634228157093E-4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.0349587620745909E-4</c:v>
+                  <c:v>4.9205838218897998E-4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.5084986054628741E-4</c:v>
+                  <c:v>4.4060828196181462E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.0370856318759266E-4</c:v>
+                  <c:v>3.945378539625968E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.6149640546272822E-4</c:v>
+                  <c:v>3.5328459446212779E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.236979917661209E-4</c:v>
+                  <c:v>3.1634481566395801E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.8985181675386478E-4</c:v>
+                  <c:v>2.8326749585512185E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.5954463052807095E-4</c:v>
+                  <c:v>2.5364877258881024E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.324063929984259E-4</c:v>
+                  <c:v>2.2712701166630755E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.0810575582612704E-4</c:v>
+                  <c:v>2.0337839171039642E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.8634601677355511E-4</c:v>
+                  <c:v>1.8211295042050871E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.6686149707608269E-4</c:v>
+                  <c:v>1.630710442341318E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.4941429759825686E-4</c:v>
+                  <c:v>1.4602017817075101E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.3379139416835228E-4</c:v>
+                  <c:v>1.3075216714987956E-4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.1980203662721E-4</c:v>
+                  <c:v>1.1708059412439479E-4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0727541983724379E-4</c:v>
+                  <c:v>1.0483853399426345E-4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.6058598211320466E-5</c:v>
+                  <c:v>9.3876515508295658E-5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>8.6014618300408668E-5</c:v>
+                  <c:v>8.4060696274910956E-5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.7020846641165003E-5</c:v>
+                  <c:v>7.5271228591737287E-5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.8967472442911987E-5</c:v>
+                  <c:v>6.7400796148502063E-5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.1756166837680725E-5</c:v>
+                  <c:v>6.0353303731349116E-5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.5298882319185322E-5</c:v>
+                  <c:v>5.4042703935755324E-5</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.9516777713924109E-5</c:v>
+                  <c:v>4.8391946556836423E-5</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.4339255556810912E-5</c:v>
+                  <c:v>4.3332037833333069E-5</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.9703100122811561E-5</c:v>
+                  <c:v>3.8801198058312843E-5</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3.5551705583783314E-5</c:v>
+                  <c:v>3.4744107271428968E-5</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3.1834384871800032E-5</c:v>
+                  <c:v>3.111122981986629E-5</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.8505750808113973E-5</c:v>
+                  <c:v>2.7858209547546615E-5</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.5525161940712336E-5</c:v>
+                  <c:v>2.4945328220157761E-5</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.2856226327153131E-5</c:v>
+                  <c:v>2.2337020581146528E-5</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.0466357201924964E-5</c:v>
+                  <c:v>2.0001440110690371E-5</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.8326375103569198E-5</c:v>
+                  <c:v>1.7910070192762132E-5</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.6410151602251796E-5</c:v>
+                  <c:v>1.6037375935527018E-5</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.469429028327256E-5</c:v>
+                  <c:v>1.4360492400770309E-5</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.3157841082637193E-5</c:v>
+                  <c:v>1.2858945429647442E-5</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.1782044496260556E-5</c:v>
+                  <c:v>1.1514401661573449E-5</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.0550102531308343E-5</c:v>
+                  <c:v>1.03104446900073E-5</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>9.4469736093346795E-6</c:v>
+                  <c:v>9.2323746237574548E-6</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>8.4591889141402361E-6</c:v>
+                  <c:v>8.2670286060636516E-6</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7.5746879420919329E-6</c:v>
+                  <c:v>7.4026201012911651E-6</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>6.7826712467115301E-6</c:v>
+                  <c:v>6.6285949859043926E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3158,361 +3158,361 @@
                   <c:v>5.3107684011332443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3986405846914307</c:v>
+                  <c:v>4.2377020585369474</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7007512895290944</c:v>
+                  <c:v>3.575215655251573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1511136754209774</c:v>
+                  <c:v>3.0507846671619774</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7085133552106448</c:v>
+                  <c:v>2.6267883926912585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3457977522684539</c:v>
+                  <c:v>2.2782026977596521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0443089334041527</c:v>
+                  <c:v>1.9876989851356635</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7907804627130972</c:v>
+                  <c:v>1.742877541715254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5755085438716383</c:v>
+                  <c:v>1.5346201556539494</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3912238506787149</c:v>
+                  <c:v>1.3560651960155858</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2323685559136521</c:v>
+                  <c:v>1.2019460650906353</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0946177882444945</c:v>
+                  <c:v>1.0681506057227441</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97455393349833963</c:v>
+                  <c:v>0.95141962556456439</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.8694395223572815</c:v>
+                  <c:v>0.84913568946506124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.77705545095226913</c:v>
+                  <c:v>0.7591720456887765</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69558354075521345</c:v>
+                  <c:v>0.67978255218212236</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.62285265315368887</c:v>
+                  <c:v>0.60870383122424065</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.55772657748541121</c:v>
+                  <c:v>0.54505717005781762</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.49941014726132466</c:v>
+                  <c:v>0.48806546532478279</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.44719133936933825</c:v>
+                  <c:v>0.43703286834558747</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40043258052243713</c:v>
+                  <c:v>0.39133628905145379</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.35856296271298582</c:v>
+                  <c:v>0.3504177882736802</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.32107127262665408</c:v>
+                  <c:v>0.31377776550253089</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2874997499075656</c:v>
+                  <c:v>0.28096885894064644</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.25743849806527636</c:v>
+                  <c:v>0.25159048337276835</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.23052047978272469</c:v>
+                  <c:v>0.22528393916108266</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.20641703551961937</c:v>
+                  <c:v>0.20172803264874101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.18483387069499269</c:v>
+                  <c:v>0.1806351544982272</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1655074624538253</c:v>
+                  <c:v>0.16174776808245456</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.14820184214562585</c:v>
+                  <c:v>0.14483526505308456</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.13270571423016445</c:v>
+                  <c:v>0.12969114969366166</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11882987643320506</c:v>
+                  <c:v>0.1161305176795099</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.10640490965325078</c:v>
+                  <c:v>0.10398779846093144</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.5279109413874116E-2</c:v>
+                  <c:v>9.3114733704999259E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.5316633605389755E-2</c:v>
+                  <c:v>8.3378567113433111E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.6395843900450872E-2</c:v>
+                  <c:v>7.4660423514866528E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.8407820592834068E-2</c:v>
+                  <c:v>6.6853857440795653E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.1255032726116238E-2</c:v>
+                  <c:v>5.9863553463827185E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.4850147274982927E-2</c:v>
+                  <c:v>5.3604162429820849E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.9114962839692106E-2</c:v>
+                  <c:v>4.7999259374719362E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.3979454834473394E-2</c:v>
+                  <c:v>4.2980410402604613E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.9380920511954055E-2</c:v>
+                  <c:v>3.848633713188683E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.5263213384655177E-2</c:v>
+                  <c:v>3.4462168507806826E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.1576057696118674E-2</c:v>
+                  <c:v>3.0858770846147437E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.8274434571594606E-2</c:v>
+                  <c:v>2.7632147928222543E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.5318032353407537E-2</c:v>
+                  <c:v>2.4742903822511816E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.267075440978588E-2</c:v>
+                  <c:v>2.2155761874189432E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.0300278407680256E-2</c:v>
+                  <c:v>1.9839133989567041E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.8177661668437695E-2</c:v>
+                  <c:v>1.7764734956576638E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.6276987787870744E-2</c:v>
+                  <c:v>1.5907237092272753E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.4575050206073597E-2</c:v>
+                  <c:v>1.4243961000730106E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.305106886348225E-2</c:v>
+                  <c:v>1.275459866558947E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1686436483654455E-2</c:v>
+                  <c:v>1.1420965496319411E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.0464491384964669E-2</c:v>
+                  <c:v>1.0226778300757017E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.3703140473286942E-3</c:v>
+                  <c:v>9.1574564730577072E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.3905449501079452E-3</c:v>
+                  <c:v>8.199943969621178E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.513221457059978E-3</c:v>
+                  <c:v>7.3425498993907818E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.727631756755067E-3</c:v>
+                  <c:v>6.5748057821832413E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.0241840751238873E-3</c:v>
+                  <c:v>5.8873377322251662E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.3942895632684805E-3</c:v>
+                  <c:v>5.2717520063037451E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.8302574306360807E-3</c:v>
+                  <c:v>4.7205325191130281E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.3252010431709641E-3</c:v>
+                  <c:v>4.2269490744930114E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.8729538399329827E-3</c:v>
+                  <c:v>3.784975192102974E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.4679940415567913E-3</c:v>
+                  <c:v>3.3892145262129853E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.1053772312661953E-3</c:v>
+                  <c:v>3.0348349782207667E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.7806759852845074E-3</c:v>
+                  <c:v>2.7175096984266957E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.4899258155459273E-3</c:v>
+                  <c:v>2.4333642567190587E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.2295767646900218E-3</c:v>
+                  <c:v>2.1789293371453091E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.9964500623308006E-3</c:v>
+                  <c:v>1.9510983787825115E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.7876993133874536E-3</c:v>
+                  <c:v>1.7470896457225369E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.6007757446003731E-3</c:v>
+                  <c:v>1.5644122630532485E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.4333970849077829E-3</c:v>
+                  <c:v>1.4008358041525584E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.2835196997161436E-3</c:v>
+                  <c:v>1.2543630579610722E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1493136388407122E-3</c:v>
+                  <c:v>1.1232056437404014E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0291402934585667E-3</c:v>
+                  <c:v>1.0057621755702204E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.2153238926847225E-4</c:v>
+                  <c:v>9.0059870999128979E-4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.2517607158970286E-4</c:v>
+                  <c:v>8.064312380593637E-4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.3889486365757192E-4</c:v>
+                  <c:v>7.2211000804556225E-4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.6163530225447518E-4</c:v>
+                  <c:v>6.4660548737493541E-4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.9245407529597797E-4</c:v>
+                  <c:v>5.7899579239311738E-4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.3050650432163039E-4</c:v>
+                  <c:v>5.1845543249230957E-4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.7503623126747302E-4</c:v>
+                  <c:v>4.6424523116135645E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.2536598359965868E-4</c:v>
+                  <c:v>4.157033008985633E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.8088930505529649E-4</c:v>
+                  <c:v>3.7223696180098263E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.4106315102572964E-4</c:v>
+                  <c:v>3.3331550514826376E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.0540125817040119E-4</c:v>
+                  <c:v>2.9846371363749481E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.7346820731489482E-4</c:v>
+                  <c:v>2.6725605914618692E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4487410713328782E-4</c:v>
+                  <c:v>2.3931150718395087E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.1926983371565868E-4</c:v>
+                  <c:v>2.1428886459515207E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.9634276788409194E-4</c:v>
+                  <c:v>1.9188261371077183E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.7581297822433917E-4</c:v>
+                  <c:v>1.7181918208418806E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.5742980322218722E-4</c:v>
+                  <c:v>1.538536022683698E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.4096879077381893E-4</c:v>
+                  <c:v>1.3776652084947604E-4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2622895770356967E-4</c:v>
+                  <c:v>1.2336152021876704E-4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.1303033583147425E-4</c:v>
+                  <c:v>1.1046272038300593E-4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.012117746245976E-4</c:v>
+                  <c:v>9.8912631530036468E-5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.0628973605152893E-5</c:v>
+                  <c:v>8.857023113585663E-5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8.1152720493506014E-5</c:v>
+                  <c:v>7.9309242127225451E-5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.2667313570036297E-5</c:v>
+                  <c:v>7.1016591084260638E-5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.5069148999071866E-5</c:v>
+                  <c:v>6.3591027652403447E-5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.8265455862356502E-5</c:v>
+                  <c:v>5.6941888312970534E-5</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.2173163458962061E-5</c:v>
+                  <c:v>5.0987989412267853E-5</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.6717887039803941E-5</c:v>
+                  <c:v>4.5656635937614463E-5</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.1833019597971477E-5</c:v>
+                  <c:v>4.0882733937080516E-5</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3.7458918619133797E-5</c:v>
+                  <c:v>3.6607995746020493E-5</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3.3542177868025672E-5</c:v>
+                  <c:v>3.2780228313297204E-5</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3.0034975317345011E-5</c:v>
+                  <c:v>2.9352695944701125E-5</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.6894489256613732E-5</c:v>
+                  <c:v>2.628354967455354E-5</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.4082375454860562E-5</c:v>
+                  <c:v>2.3535316306308224E-5</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.1564298991234097E-5</c:v>
+                  <c:v>2.1074440876152695E-5</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.9309515037766702E-5</c:v>
+                  <c:v>1.8870876960673124E-5</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.7290493474293186E-5</c:v>
+                  <c:v>1.6897719818747215E-5</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.5482582757945417E-5</c:v>
+                  <c:v>1.5130877895673086E-5</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.3863708933920328E-5</c:v>
+                  <c:v>1.3548778672288574E-5</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.2414106122485248E-5</c:v>
+                  <c:v>1.213210527333016E-5</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1116075182735046E-5</c:v>
+                  <c:v>1.0863560614831222E-5</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>9.9537676130674743E-6</c:v>
+                  <c:v>9.7276562126582429E-6</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>8.9129920468062451E-6</c:v>
+                  <c:v>8.7105230731277563E-6</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7.9810409804243494E-6</c:v>
+                  <c:v>7.7997423580464078E-6</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7.1465356184429893E-6</c:v>
+                  <c:v>6.9841937555156689E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,46 +3546,46 @@
                   <c:v>6.6515224006492453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4357902636149511</c:v>
+                  <c:v>4.0895399702284498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.032527104547825</c:v>
+                  <c:v>2.8073386614255971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1085720760612525</c:v>
+                  <c:v>1.9573302108810191</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4821341318345578</c:v>
+                  <c:v>1.3780322668417606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.047790215483849</c:v>
+                  <c:v>0.97476912957923678</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74140517244034843</c:v>
+                  <c:v>0.68943806906584149</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52242647124228947</c:v>
+                  <c:v>0.4850378405059852</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36438751318214607</c:v>
+                  <c:v>0.33727646312309179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24955336753926763</c:v>
+                  <c:v>0.22979537165238953</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16577360428161408</c:v>
+                  <c:v>0.1513400824348636</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10456589587188871</c:v>
+                  <c:v>9.4025715000667323E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.9913116015965065E-2</c:v>
+                  <c:v>5.2241936629824084E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7488152699452508E-2</c:v>
+                  <c:v>2.1943689799514644E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1427163474099856E-3</c:v>
+                  <c:v>1.813800073065396E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3934,361 +3934,361 @@
                   <c:v>1.6227881489963432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.344073262733211</c:v>
+                  <c:v>1.2948959849395298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1308222994151373</c:v>
+                  <c:v>1.0924629276265221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96287195041725071</c:v>
+                  <c:v>0.93221485650810587</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8276285166749604</c:v>
+                  <c:v>0.80265617922086774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71679510473685926</c:v>
+                  <c:v>0.69614038114465004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62467049199654578</c:v>
+                  <c:v>0.60737243901690596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54720091196688037</c:v>
+                  <c:v>0.53256342702571424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48142121827263495</c:v>
+                  <c:v>0.46892713327034619</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42511015486962722</c:v>
+                  <c:v>0.41436687935608663</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37656944093168643</c:v>
+                  <c:v>0.36727337417795503</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33447754454227563</c:v>
+                  <c:v>0.326390083954754</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29779016036575934</c:v>
+                  <c:v>0.29072111161150516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26567081193926056</c:v>
+                  <c:v>0.25946665899791466</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23744141745086678</c:v>
+                  <c:v>0.23197686393746153</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21254640408224312</c:v>
+                  <c:v>0.20771816548058109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.19032234655404179</c:v>
+                  <c:v>0.18599895324913551</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17042205797008325</c:v>
+                  <c:v>0.16655072284955375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15260256280263707</c:v>
+                  <c:v>0.14913601822561784</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13664629128009231</c:v>
+                  <c:v>0.13354221195595017</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12235842293653265</c:v>
+                  <c:v>0.11957890914794822</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1095645079223353</c:v>
+                  <c:v>0.10707562278307892</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.8108337032834614E-2</c:v>
+                  <c:v>9.5879692130315108E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.7850034448848202E-2</c:v>
+                  <c:v>8.5854418812278066E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.8664349902097586E-2</c:v>
+                  <c:v>7.6877397766106581E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0439129413463419E-2</c:v>
+                  <c:v>6.8839022720668108E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.3073945932328179E-2</c:v>
+                  <c:v>6.1641147942521846E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.6478873157592924E-2</c:v>
+                  <c:v>5.5195889911014762E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.0573387569153416E-2</c:v>
+                  <c:v>4.9424554291391365E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.5285385264028699E-2</c:v>
+                  <c:v>4.425667510463005E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0550301593052396E-2</c:v>
+                  <c:v>3.962915436261083E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.6310322849205212E-2</c:v>
+                  <c:v>3.5485491663862723E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2513680382574295E-2</c:v>
+                  <c:v>3.1775094343524879E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.9114018523339835E-2</c:v>
+                  <c:v>2.8452659754693688E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.6069828595339573E-2</c:v>
+                  <c:v>2.5477622139030487E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.33439421097279E-2</c:v>
+                  <c:v>2.2813657333112136E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.090307695079141E-2</c:v>
+                  <c:v>2.0428239263166503E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.8717431013017372E-2</c:v>
+                  <c:v>1.8292242813145121E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.67603183278624E-2</c:v>
+                  <c:v>1.6379588217295682E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5007843237456964E-2</c:v>
+                  <c:v>1.4666922635390156E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.3438608637023952E-2</c:v>
+                  <c:v>1.3133335022755377E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.203345472375128E-2</c:v>
+                  <c:v>1.1760100813768659E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.077522506233497E-2</c:v>
+                  <c:v>1.0530453301494047E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.6485571109354851E-3</c:v>
+                  <c:v>9.4293789220851743E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.6396946499427418E-3</c:v>
+                  <c:v>8.4434339444485751E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.7363198233701969E-3</c:v>
+                  <c:v>7.5605803270126781E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.9274027421637463E-3</c:v>
+                  <c:v>6.7700387374729498E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.2030668131338729E-3</c:v>
+                  <c:v>6.062156940933372E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.5544681492252224E-3</c:v>
+                  <c:v>5.4282919495118875E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.9736875887635978E-3</c:v>
+                  <c:v>4.8607044944959377E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.4536340052780954E-3</c:v>
+                  <c:v>4.3524645325936362E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.9879577273365108E-3</c:v>
+                  <c:v>3.8973666325397005E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.5709730112927218E-3</c:v>
+                  <c:v>3.4898542089631945E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.1975886203532422E-3</c:v>
+                  <c:v>3.1249516784312981E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.8632456623667313E-3</c:v>
+                  <c:v>2.7982037093270407E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.5638619273533614E-3</c:v>
+                  <c:v>2.5056208238145583E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.295782045155681E-3</c:v>
+                  <c:v>2.2436306877180456E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.0557328546551012E-3</c:v>
+                  <c:v>2.0090344935776994E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.8407834396239053E-3</c:v>
+                  <c:v>1.7989679043348694E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.6483093432690943E-3</c:v>
+                  <c:v>1.6108660807825359E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.4759605245382446E-3</c:v>
+                  <c:v>1.4424323657822313E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.3216326649430066E-3</c:v>
+                  <c:v>1.2916102428859322E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1834414755709233E-3</c:v>
+                  <c:v>1.1565582269938979E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.0596996905809508E-3</c:v>
+                  <c:v>1.0356273804692506E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.488964662791588E-4</c:v>
+                  <c:v>9.2734118018888978E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.4967893424914287E-4</c:v>
+                  <c:v>8.3037748971470648E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.608356833044283E-4</c:v>
+                  <c:v>7.4355241647383608E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.8128196858374679E-4</c:v>
+                  <c:v>6.658058568447256E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.1004646719720057E-4</c:v>
+                  <c:v>5.96188552665744E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.4625941871511152E-4</c:v>
+                  <c:v>5.3385050112675358E-4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.8914200570004951E-4</c:v>
+                  <c:v>4.7803057653306169E-4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.3799684461820476E-4</c:v>
+                  <c:v>4.280472372291122E-4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.9219947103297237E-4</c:v>
+                  <c:v>3.8329020421290494E-4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.5119071511235944E-4</c:v>
+                  <c:v>3.4321300984596625E-4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.1446987436378748E-4</c:v>
+                  <c:v>3.0732632567365137E-4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.8158860023008714E-4</c:v>
+                  <c:v>2.7519198789827115E-4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.5214542391371886E-4</c:v>
+                  <c:v>2.4641764755251039E-4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.257808545824691E-4</c:v>
+                  <c:v>2.2065198005583042E-4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.0217299011315859E-4</c:v>
+                  <c:v>1.9758039566641905E-4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.8103358678001058E-4</c:v>
+                  <c:v>1.7692119844903154E-4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.6210453989962126E-4</c:v>
+                  <c:v>1.5842214686889733E-4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.4515473246401456E-4</c:v>
+                  <c:v>1.4185737400929099E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.2997721328322775E-4</c:v>
+                  <c:v>1.2702462981684093E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.1638667018343263E-4</c:v>
+                  <c:v>1.1374281169929112E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0421716741126907E-4</c:v>
+                  <c:v>1.0184975332672153E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.3320119616269182E-5</c:v>
+                  <c:v>9.1200244637379413E-5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.3562477675158675E-5</c:v>
+                  <c:v>8.1664258873903606E-5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.4825104210418658E-5</c:v>
+                  <c:v>7.3125365002590925E-5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.7001318963644252E-5</c:v>
+                  <c:v>6.5479306130766801E-5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.9995596267237161E-5</c:v>
+                  <c:v>5.8632726567697802E-5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.3722398710043251E-5</c:v>
+                  <c:v>5.2502031984147379E-5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.8105132754994173E-5</c:v>
+                  <c:v>4.7012368754151268E-5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.3075213559840009E-5</c:v>
+                  <c:v>4.2096710019423611E-5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.8571227579442535E-5</c:v>
+                  <c:v>3.7695037315321756E-5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.4538182728027778E-5</c:v>
+                  <c:v>3.3753607765252269E-5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.0926836946054692E-5</c:v>
+                  <c:v>3.0224297899783537E-5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.769309697092659E-5</c:v>
+                  <c:v>2.7064016086653098E-5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.4797479974303371E-5</c:v>
+                  <c:v>2.423417639563219E-5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.220463149082974E-5</c:v>
+                  <c:v>2.1700227479160006E-5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.9882893751876907E-5</c:v>
+                  <c:v>1.9431230711353109E-5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.7803919155845449E-5</c:v>
+                  <c:v>1.7399482439506286E-5</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.5942324153916942E-5</c:v>
+                  <c:v>1.5580175731555457E-5</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.4275379325079385E-5</c:v>
+                  <c:v>1.3951097492137521E-5</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.2782731859672936E-5</c:v>
+                  <c:v>1.2492357248650166E-5</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.1446157056393957E-5</c:v>
+                  <c:v>1.1186144295516343E-5</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.0249335806955528E-5</c:v>
+                  <c:v>1.0016510231691811E-5</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9.1776553445832576E-6</c:v>
+                  <c:v>8.9691742366504457E-6</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>8.2180308276225134E-6</c:v>
+                  <c:v>8.0313487058614186E-6</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>7.3587455780010913E-6</c:v>
+                  <c:v>7.1915831194591107E-6</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>6.5893080249956881E-6</c:v>
+                  <c:v>6.4396242347442012E-6</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5.9003236065890974E-6</c:v>
+                  <c:v>5.7662908981015448E-6</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5.2833800650020635E-6</c:v>
+                  <c:v>5.1633619460034197E-6</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.7309447368526492E-6</c:v>
+                  <c:v>4.6234758284136035E-6</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.2362725805045187E-6</c:v>
+                  <c:v>4.1400407251312998E-6</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.793323823275685E-6</c:v>
+                  <c:v>3.7071540637256817E-6</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.3966902164284107E-6</c:v>
+                  <c:v>3.3195304502964262E-6</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.0415290031005071E-6</c:v>
+                  <c:v>2.9724371366501856E-6</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.7235037896033987E-6</c:v>
+                  <c:v>2.6616362354126011E-6</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.4387315999963022E-6</c:v>
+                  <c:v>2.3833329769740175E-6</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.1837354657883168E-6</c:v>
+                  <c:v>2.1341293765519964E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4305,11 +4305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204812288"/>
-        <c:axId val="204743232"/>
+        <c:axId val="53743616"/>
+        <c:axId val="53194688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204812288"/>
+        <c:axId val="53743616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4318,7 +4318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204743232"/>
+        <c:crossAx val="53194688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4326,7 +4326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204743232"/>
+        <c:axId val="53194688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4337,7 +4337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204812288"/>
+        <c:crossAx val="53743616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="G21">
         <f ca="1">FLOOR(RAND()*20+1,1)</f>
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -9382,8 +9382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9709,35 +9709,35 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ref="A18:A81" si="1">($B18-$E$10)*(1-EXP(-$G$10*24)*EXP(-$G$11*24))</f>
-        <v>81.993554016944373</v>
+        <v>78.993554020677166</v>
       </c>
       <c r="B18">
-        <f>B17-C17-D17-E17</f>
-        <v>142.9973374635058</v>
+        <f>B17-C17-D17-E17-3</f>
+        <v>139.9973374635058</v>
       </c>
       <c r="C18">
         <f t="shared" ref="C18:C81" si="2">$A18 / (1 + (24*$G$11))</f>
-        <v>4.1746847159638154</v>
+        <v>4.0219403413301693</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:D81" si="3">$A18 / (24*$G$11)</f>
-        <v>4.3986405846914307</v>
+        <v>4.2377020585369474</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ref="E18:E39" si="4">IF((B18-$E$10)*(1-EXP(0.05*($K$23/$N$23-B18/$E$10)))&gt;0, (B18-$E$10)*(1-EXP(0.05*($K$23/$N$23-B18/$E$10))), 0)</f>
-        <v>4.4357902636149511</v>
+        <v>4.0895399702284498</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ref="F18:F81" si="5">B18/($E$10)-1</f>
-        <v>1.344073262733211</v>
+        <v>1.2948959849395298</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>5.9954440080698945E-2</v>
+        <v>5.8998567755049074E-2</v>
       </c>
       <c r="H18" s="3">
         <f>H17+F18</f>
-        <v>2.9668614117295542</v>
+        <v>2.917684133935873</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>27</v>
@@ -9759,35 +9759,35 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="1"/>
-        <v>68.984438468860901</v>
+        <v>66.644371665947205</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19:B39" si="6">B18-C18-D18-E18</f>
-        <v>129.98822189923558</v>
+        <v>127.64815509341024</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>3.5123283088300532</v>
+        <v>3.3931842952111375</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>3.7007512895290944</v>
+        <v>3.575215655251573</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="4"/>
-        <v>3.032527104547825</v>
+        <v>2.8073386614255971</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="5"/>
-        <v>1.1308222994151373</v>
+        <v>1.0924629276265221</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>5.5490255139812518E-2</v>
+        <v>5.4590682845070362E-2</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" ref="H19:H69" si="7">H18+F19</f>
-        <v>4.0976837111446915</v>
+        <v>4.0101470615623951</v>
       </c>
       <c r="J19" t="s">
         <v>28</v>
@@ -9821,35 +9821,35 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="1"/>
-        <v>58.738831778702149</v>
+        <v>56.868633066222472</v>
       </c>
       <c r="B20">
         <f t="shared" si="6"/>
-        <v>119.74261519632861</v>
+        <v>117.87241648152192</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>2.9906753793041143</v>
+        <v>2.8954546015928488</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>3.1511136754209774</v>
+        <v>3.0507846671619774</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="4"/>
-        <v>2.1085720760612525</v>
+        <v>1.9573302108810191</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="5"/>
-        <v>0.96287195041725071</v>
+        <v>0.93221485650810587</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>5.1291589419982894E-2</v>
+        <v>5.0446401679454661E-2</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="7"/>
-        <v>5.060555661561942</v>
+        <v>4.9423619180705014</v>
       </c>
       <c r="J20" t="s">
         <v>29</v>
@@ -9883,35 +9883,35 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="1"/>
-        <v>50.48847065818142</v>
+        <v>48.965063596420734</v>
       </c>
       <c r="B21">
         <f t="shared" si="6"/>
-        <v>111.49225406554228</v>
+        <v>109.96884700188608</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>2.5706099621628811</v>
+        <v>2.4930460090793325</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>2.7085133552106448</v>
+        <v>2.6267883926912585</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="4"/>
-        <v>1.4821341318345578</v>
+        <v>1.3780322668417606</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="5"/>
-        <v>0.8276285166749604</v>
+        <v>0.80265617922086774</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>4.7349686860489154E-2</v>
+        <v>4.6557134509946994E-2</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="7"/>
-        <v>5.8881841782369024</v>
+        <v>5.7450180972913696</v>
       </c>
       <c r="N21" t="s">
         <v>29</v>
@@ -9931,69 +9931,69 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="1"/>
-        <v>43.727213217386122</v>
+        <v>42.467196935893433</v>
       </c>
       <c r="B22">
         <f t="shared" si="6"/>
-        <v>104.73099661633421</v>
+        <v>103.47098033327373</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>2.2263619485574253</v>
+        <v>2.1622084821626637</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>2.3457977522684539</v>
+        <v>2.2782026977596521</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="4"/>
-        <v>1.047790215483849</v>
+        <v>0.97476912957923678</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="5"/>
-        <v>0.71679510473685926</v>
+        <v>0.69614038114465004</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>4.3656222594493956E-2</v>
+        <v>4.2914556000339631E-2</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="7"/>
-        <v>6.6049792829737619</v>
+        <v>6.4411584784360194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="1"/>
-        <v>38.107263308069086</v>
+        <v>37.052016633129767</v>
       </c>
       <c r="B23">
         <f t="shared" si="6"/>
-        <v>99.111046700024488</v>
+        <v>98.055800023772164</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>1.9402233700777116</v>
+        <v>1.886495705528247</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>2.0443089334041527</v>
+        <v>1.9876989851356635</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="4"/>
-        <v>0.74140517244034843</v>
+        <v>0.68943806906584149</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="5"/>
-        <v>0.62467049199654578</v>
+        <v>0.60737243901690596</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>4.0202706319323732E-2</v>
+        <v>3.9510102306285495E-2</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="7"/>
-        <v>7.2296497749703077</v>
+        <v>7.0485309174529256</v>
       </c>
       <c r="J23" t="s">
         <v>39</v>
@@ -10025,35 +10025,35 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="1"/>
-        <v>33.381325838027166</v>
+        <v>32.488383879078363</v>
       </c>
       <c r="B24">
         <f t="shared" si="6"/>
-        <v>94.385109224102266</v>
+        <v>93.492167264042408</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>1.6996032486385613</v>
+        <v>1.6541392948807327</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>1.7907804627130972</v>
+        <v>1.742877541715254</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="4"/>
-        <v>0.52242647124228947</v>
+        <v>0.4850378405059852</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="5"/>
-        <v>0.54720091196688037</v>
+        <v>0.53256342702571424</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
-        <v>3.6980237031503597E-2</v>
+        <v>3.6334774730401379E-2</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="7"/>
-        <v>7.7768506869371876</v>
+        <v>7.5810943444786396</v>
       </c>
       <c r="J24" t="s">
         <v>41</v>
@@ -10082,35 +10082,35 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="1"/>
-        <v>29.368515660426201</v>
+        <v>28.606329206806677</v>
       </c>
       <c r="B25">
         <f t="shared" si="6"/>
-        <v>90.372299041508313</v>
+        <v>89.610112586940431</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>1.4952918546839478</v>
+        <v>1.4564852902315455</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>1.5755085438716383</v>
+        <v>1.5346201556539494</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="4"/>
-        <v>0.36438751318214607</v>
+        <v>0.33727646312309179</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="5"/>
-        <v>0.48142121827263495</v>
+        <v>0.46892713327034619</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>3.397944316039981E-2</v>
+        <v>3.3379105990783135E-2</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="7"/>
-        <v>8.2582719052098224</v>
+        <v>8.0500214777489862</v>
       </c>
       <c r="O25" t="s">
         <v>54</v>
@@ -10123,223 +10123,223 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="1"/>
-        <v>25.933327752962747</v>
+        <v>25.27794730193947</v>
       </c>
       <c r="B26">
         <f t="shared" si="6"/>
-        <v>86.937111129770585</v>
+        <v>86.281730677931847</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>1.3203899782414679</v>
+        <v>1.2870214191537264</v>
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>1.3912238506787149</v>
+        <v>1.3560651960155858</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="4"/>
-        <v>0.24955336753926763</v>
+        <v>0.22979537165238953</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="5"/>
-        <v>0.42511015486962722</v>
+        <v>0.41436687935608663</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
-        <v>3.1190521443397984E-2</v>
+        <v>3.0633212783309764E-2</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="7"/>
-        <v>8.6833820600794489</v>
+        <v>8.4643883571050722</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="1"/>
-        <v>22.972160560187771</v>
+        <v>22.40506531869238</v>
       </c>
       <c r="B27">
         <f t="shared" si="6"/>
-        <v>83.975943933311143</v>
+        <v>83.408848691110137</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>1.1696227677051798</v>
+        <v>1.1407492316626102</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>1.2323685559136521</v>
+        <v>1.2019460650906353</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="4"/>
-        <v>0.16577360428161408</v>
+        <v>0.1513400824348636</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="5"/>
-        <v>0.37656944093168643</v>
+        <v>0.36727337417795503</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
-        <v>2.8603326275514748E-2</v>
+        <v>2.8086891660967551E-2</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="7"/>
-        <v>9.0599515010111347</v>
+        <v>8.8316617312830274</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="1"/>
-        <v>20.404395635482299</v>
+        <v>19.911029942607506</v>
       </c>
       <c r="B28">
         <f t="shared" si="6"/>
-        <v>81.408179005410702</v>
+        <v>80.914813311922032</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>1.0388855516657256</v>
+        <v>1.0137659402265184</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>1.0946177882444945</v>
+        <v>1.0681506057227441</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="4"/>
-        <v>0.10456589587188871</v>
+        <v>9.4025715000667323E-2</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="5"/>
-        <v>0.33447754454227563</v>
+        <v>0.326390083954754</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
-        <v>2.6207481434616285E-2</v>
+        <v>2.572973304558699E-2</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="7"/>
-        <v>9.3944290455534105</v>
+        <v>9.1580518152377817</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="1"/>
-        <v>18.166326402484938</v>
+        <v>17.735087684365009</v>
       </c>
       <c r="B29">
         <f t="shared" si="6"/>
-        <v>79.170109769628596</v>
+        <v>78.738871050972094</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>0.92493472306361235</v>
+        <v>0.90297829359727833</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>0.97455393349833963</v>
+        <v>0.95141962556456439</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="4"/>
-        <v>5.9913116015965065E-2</v>
+        <v>5.2241936629824084E-2</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="5"/>
-        <v>0.29779016036575934</v>
+        <v>0.29072111161150516</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
-        <v>2.3992497447447494E-2</v>
+        <v>2.355123834530707E-2</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="7"/>
-        <v>9.6922192059191694</v>
+        <v>9.448772926849287</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="1"/>
-        <v>16.206924632345025</v>
+        <v>15.8284478309457</v>
       </c>
       <c r="B30">
         <f t="shared" si="6"/>
-        <v>77.210707997050676</v>
+        <v>76.832231195180427</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>0.82517219026078836</v>
+        <v>0.80590212278911721</v>
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>0.8694395223572815</v>
+        <v>0.84913568946506124</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="4"/>
-        <v>2.7488152699452508E-2</v>
+        <v>2.1943689799514644E-2</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="5"/>
-        <v>0.26567081193926056</v>
+        <v>0.25946665899791466</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
-        <v>2.1947884646813513E-2</v>
+        <v>2.1540931279866261E-2</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="7"/>
-        <v>9.9578900178584302</v>
+        <v>9.7082395858472026</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="1"/>
-        <v>14.484824769170251</v>
+        <v>14.151466330978611</v>
       </c>
       <c r="B31">
         <f t="shared" si="6"/>
-        <v>75.488608131733159</v>
+        <v>75.155249693126734</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>0.73749183459925161</v>
+        <v>0.72051895918798925</v>
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>0.77705545095226913</v>
+        <v>0.7591720456887765</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="4"/>
-        <v>4.1427163474099856E-3</v>
+        <v>1.813800073065396E-4</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="5"/>
-        <v>0.23744141745086678</v>
+        <v>0.23197686393746153</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
-        <v>2.0063256205605548E-2</v>
+        <v>1.9688458370088945E-2</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="7"/>
-        <v>10.195331435309297</v>
+        <v>9.9402164497846641</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="1"/>
-        <v>12.966134769160952</v>
+        <v>12.671593947935898</v>
       </c>
       <c r="B32">
         <f t="shared" si="6"/>
-        <v>73.969918129834213</v>
+        <v>73.675377308242673</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>0.66016804973177656</v>
+        <v>0.64517156519908314</v>
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>0.69558354075521345</v>
+        <v>0.67978255218212236</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="4"/>
@@ -10347,33 +10347,33 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="5"/>
-        <v>0.21254640408224312</v>
+        <v>0.20771816548058109</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>1.8328418156517822E-2</v>
+        <v>1.7983676036538901E-2</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="7"/>
-        <v>10.40787783939154</v>
+        <v>10.147934615265246</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="1"/>
-        <v>11.610383180360873</v>
+        <v>11.346639832203293</v>
       </c>
       <c r="B33">
         <f t="shared" si="6"/>
-        <v>72.614166539347224</v>
+        <v>72.350423190861477</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>0.59114024011594113</v>
+        <v>0.57771180250652809</v>
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>0.62285265315368887</v>
+        <v>0.60870383122424065</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="4"/>
@@ -10381,33 +10381,33 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" si="5"/>
-        <v>0.19032234655404179</v>
+        <v>0.18599895324913551</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>1.6718402911252962E-2</v>
+        <v>1.6398185130182128E-2</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="7"/>
-        <v>10.598200185945583</v>
+        <v>10.333933568514382</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="1"/>
-        <v>10.396390288601765</v>
+        <v>10.160224199948729</v>
       </c>
       <c r="B34">
         <f t="shared" si="6"/>
-        <v>71.40017364607759</v>
+        <v>71.164007557130702</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
-        <v>0.5293300450185543</v>
+        <v>0.51730569782993208</v>
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>0.55772657748541121</v>
+        <v>0.54505717005781762</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="4"/>
@@ -10415,33 +10415,33 @@
       </c>
       <c r="F34" s="3">
         <f t="shared" si="5"/>
-        <v>0.17042205797008325</v>
+        <v>0.16655072284955375</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
-        <v>1.5224845641025742E-2</v>
+        <v>1.4928373265584872E-2</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="7"/>
-        <v>10.768622243915665</v>
+        <v>10.500484291363936</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="1"/>
-        <v>9.3093336674503817</v>
+        <v>9.0978613333828431</v>
       </c>
       <c r="B35">
         <f t="shared" si="6"/>
-        <v>70.313117023573625</v>
+        <v>70.10164468924296</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>0.47398278368664365</v>
+        <v>0.46321571386675875</v>
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>0.49941014726132466</v>
+        <v>0.48806546532478279</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="4"/>
@@ -10449,33 +10449,33 @@
       </c>
       <c r="F35" s="3">
         <f t="shared" si="5"/>
-        <v>0.15260256280263707</v>
+        <v>0.14913601822561784</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="0"/>
-        <v>1.3843689088930909E-2</v>
+        <v>1.3570026543721232E-2</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="7"/>
-        <v>10.921224806718302</v>
+        <v>10.649620309589555</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="1"/>
-        <v>8.335940737713571</v>
+        <v>8.1465801553749468</v>
       </c>
       <c r="B36">
         <f t="shared" si="6"/>
-        <v>69.339724092625659</v>
+        <v>69.15036351005142</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
-        <v>0.42442268551649071</v>
+        <v>0.41478143092796904</v>
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
-        <v>0.44719133936933825</v>
+        <v>0.43703286834558747</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="4"/>
@@ -10483,33 +10483,33 @@
       </c>
       <c r="F36" s="3">
         <f t="shared" si="5"/>
-        <v>0.13664629128009231</v>
+        <v>0.13354221195595017</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="0"/>
-        <v>1.2570197477588837E-2</v>
+        <v>1.2318290982660419E-2</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="7"/>
-        <v>11.057871097998394</v>
+        <v>10.783162521545504</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="1"/>
-        <v>7.4643267139122571</v>
+        <v>7.2947658571612699</v>
       </c>
       <c r="B37">
         <f t="shared" si="6"/>
-        <v>68.468110067739829</v>
+        <v>68.298549210777864</v>
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
-        <v>0.38004463913212361</v>
+        <v>0.37141148344579011</v>
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
-        <v>0.40043258052243713</v>
+        <v>0.39133628905145379</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="4"/>
@@ -10517,33 +10517,33 @@
       </c>
       <c r="F37" s="3">
         <f t="shared" si="5"/>
-        <v>0.12235842293653265</v>
+        <v>0.11957890914794822</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="0"/>
-        <v>1.1399134850989538E-2</v>
+        <v>1.1167847360026769E-2</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="7"/>
-        <v>11.180229520934926</v>
+        <v>10.902741430693453</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="1"/>
-        <v>6.6838494952288183</v>
+        <v>6.5320180856130925</v>
       </c>
       <c r="B38">
         <f t="shared" si="6"/>
-        <v>67.687632848085272</v>
+        <v>67.535801438280629</v>
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
-        <v>0.34030680418814291</v>
+        <v>0.33257633960802452</v>
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
-        <v>0.35856296271298582</v>
+        <v>0.3504177882736802</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="4"/>
@@ -10551,33 +10551,33 @@
       </c>
       <c r="F38" s="3">
         <f t="shared" si="5"/>
-        <v>0.1095645079223353</v>
+        <v>0.10707562278307892</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="0"/>
-        <v>1.032492550699235E-2</v>
+        <v>1.0113067637257209E-2</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="7"/>
-        <v>11.289794028857262</v>
+        <v>11.009817053476532</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="1"/>
-        <v>5.9849797291972688</v>
+        <v>5.8490239585812169</v>
       </c>
       <c r="B39">
         <f t="shared" si="6"/>
-        <v>66.988763081184146</v>
+        <v>66.85280731039893</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
-        <v>0.30472399568958475</v>
+        <v>0.29780183596077703</v>
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
-        <v>0.32107127262665408</v>
+        <v>0.31377776550253089</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="4"/>
@@ -10585,33 +10585,33 @@
       </c>
       <c r="F39" s="3">
         <f t="shared" si="5"/>
-        <v>9.8108337032834614E-2</v>
+        <v>9.5879692130315108E-2</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
-        <v>9.3417946463324499E-3</v>
+        <v>9.1481513801467077E-3</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="7"/>
-        <v>11.387902365890097</v>
+        <v>11.105696745606847</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="1"/>
-        <v>5.3591844616596829</v>
+        <v>5.2374443578788634</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40:B103" si="8">B39-C39-D39-E39</f>
-        <v>66.362967812867907</v>
+        <v>66.241227708935611</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
-        <v>0.27286176005369855</v>
+        <v>0.26666338803937401</v>
       </c>
       <c r="D40">
         <f t="shared" si="3"/>
-        <v>0.2874997499075656</v>
+        <v>0.28096885894064644</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" ref="E40:E103" si="9">IF((B40-$E$10)*(1-EXP(0.05*($K$23/$N$23-B40/$E$10)))&gt;0, (B40-$E$10)*(1-EXP(0.05*($K$23/$N$23-B40/$E$10))), 0)</f>
@@ -10619,33 +10619,33 @@
       </c>
       <c r="F40" s="3">
         <f t="shared" si="5"/>
-        <v>8.7850034448848202E-2</v>
+        <v>8.5854418812278066E-2</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
-        <v>8.4438886389377101E-3</v>
+        <v>8.2672418057575889E-3</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="7"/>
-        <v>11.475752400338946</v>
+        <v>11.191551164419126</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="1"/>
-        <v>4.7988229523956516</v>
+        <v>4.689812111580232</v>
       </c>
       <c r="B41">
         <f t="shared" si="8"/>
-        <v>65.802606302906639</v>
+        <v>65.693595461955582</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>0.24433107058443204</v>
+        <v>0.23878080634131299</v>
       </c>
       <c r="D41">
         <f t="shared" si="3"/>
-        <v>0.25743849806527636</v>
+        <v>0.25159048337276835</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="9"/>
@@ -10653,33 +10653,33 @@
       </c>
       <c r="F41" s="3">
         <f t="shared" si="5"/>
-        <v>7.8664349902097586E-2</v>
+        <v>7.6877397766106581E-2</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
-        <v>7.6253752980532646E-3</v>
+        <v>7.4645220171890994E-3</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="7"/>
-        <v>11.554416750241044</v>
+        <v>11.268428562185232</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="1"/>
-        <v>4.2970533843702778</v>
+        <v>4.1994408224763058</v>
       </c>
       <c r="B42">
         <f t="shared" si="8"/>
-        <v>65.300836734256933</v>
+        <v>65.203224172241505</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
-        <v>0.21878357759323414</v>
+        <v>0.21381365434608932</v>
       </c>
       <c r="D42">
         <f t="shared" si="3"/>
-        <v>0.23052047978272469</v>
+        <v>0.22528393916108266</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="9"/>
@@ -10687,33 +10687,33 @@
       </c>
       <c r="F42" s="3">
         <f t="shared" si="5"/>
-        <v>7.0439129413463419E-2</v>
+        <v>6.8839022720668108E-2</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
-        <v>6.8805252711295365E-3</v>
+        <v>6.7342926531860949E-3</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="7"/>
-        <v>11.624855879654508</v>
+        <v>11.3372675849059</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="1"/>
-        <v>3.847749327553375</v>
+        <v>3.7603432295154868</v>
       </c>
       <c r="B43">
         <f t="shared" si="8"/>
-        <v>64.851532676880979</v>
+        <v>64.764126578734334</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
-        <v>0.19590735517181745</v>
+        <v>0.19145709190495871</v>
       </c>
       <c r="D43">
         <f t="shared" si="3"/>
-        <v>0.20641703551961937</v>
+        <v>0.20172803264874101</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="9"/>
@@ -10721,33 +10721,33 @@
       </c>
       <c r="F43" s="3">
         <f t="shared" si="5"/>
-        <v>6.3073945932328179E-2</v>
+        <v>6.1641147942521846E-2</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="0"/>
-        <v>6.2037761342664775E-3</v>
+        <v>6.0710326121004811E-3</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="7"/>
-        <v>11.687929825586835</v>
+        <v>11.398908732848422</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="1"/>
-        <v>3.4454249373625387</v>
+        <v>3.3671581054510016</v>
       </c>
       <c r="B44">
         <f t="shared" si="8"/>
-        <v>64.449208286189545</v>
+        <v>64.370941454180624</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
-        <v>0.1754230926864756</v>
+        <v>0.17143815324988915</v>
       </c>
       <c r="D44">
         <f t="shared" si="3"/>
-        <v>0.18483387069499269</v>
+        <v>0.1806351544982272</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="9"/>
@@ -10755,33 +10755,33 @@
       </c>
       <c r="F44" s="3">
         <f t="shared" si="5"/>
-        <v>5.6478873157592924E-2</v>
+        <v>5.5195889911014762E-2</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="0"/>
-        <v>5.5897810533487302E-3</v>
+        <v>5.4694447493629237E-3</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="7"/>
-        <v>11.744408698744428</v>
+        <v>11.454104622759438</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="1"/>
-        <v>3.085167974429333</v>
+        <v>3.0150847981409448</v>
       </c>
       <c r="B45">
         <f t="shared" si="8"/>
-        <v>64.088951322808086</v>
+        <v>64.018868146432496</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
-        <v>0.15708068449343646</v>
+        <v>0.15351241417749345</v>
       </c>
       <c r="D45">
         <f t="shared" si="3"/>
-        <v>0.1655074624538253</v>
+        <v>0.16174776808245456</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="9"/>
@@ -10789,33 +10789,33 @@
       </c>
       <c r="F45" s="3">
         <f t="shared" si="5"/>
-        <v>5.0573387569153416E-2</v>
+        <v>4.9424554291391365E-2</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="0"/>
-        <v>5.0334439913429906E-3</v>
+        <v>4.9244885357679685E-3</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="7"/>
-        <v>11.794982086313581</v>
+        <v>11.503529177050829</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="1"/>
-        <v>2.7625798278834557</v>
+        <v>2.6998246162732631</v>
       </c>
       <c r="B46">
         <f t="shared" si="8"/>
-        <v>63.766363175860825</v>
+        <v>63.703607964172548</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
-        <v>0.1406561762368744</v>
+        <v>0.13746100771543179</v>
       </c>
       <c r="D46">
         <f t="shared" si="3"/>
-        <v>0.14820184214562585</v>
+        <v>0.14483526505308456</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="9"/>
@@ -10823,33 +10823,33 @@
       </c>
       <c r="F46" s="3">
         <f t="shared" si="5"/>
-        <v>4.5285385264028699E-2</v>
+        <v>4.425667510463005E-2</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="0"/>
-        <v>4.5299434371983962E-3</v>
+        <v>4.4314016394060782E-3</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="7"/>
-        <v>11.84026747157761</v>
+        <v>11.54778585215546</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="1"/>
-        <v>2.4737218098603724</v>
+        <v>2.4175283438560009</v>
       </c>
       <c r="B47">
         <f t="shared" si="8"/>
-        <v>63.477505157478326</v>
+        <v>63.421311691404036</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
-        <v>0.12594903044495809</v>
+        <v>0.12308795183361991</v>
       </c>
       <c r="D47">
         <f t="shared" si="3"/>
-        <v>0.13270571423016445</v>
+        <v>0.12969114969366166</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" si="9"/>
@@ -10857,33 +10857,33 @@
       </c>
       <c r="F47" s="3">
         <f t="shared" si="5"/>
-        <v>4.0550301593052396E-2</v>
+        <v>3.962915436261083E-2</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="0"/>
-        <v>4.0747465426285772E-3</v>
+        <v>3.9857122911184225E-3</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="7"/>
-        <v>11.880817773170662</v>
+        <v>11.587415006518071</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="1"/>
-        <v>2.2150670655070868</v>
+        <v>2.1647492426432433</v>
       </c>
       <c r="B48">
         <f t="shared" si="8"/>
-        <v>63.218850412803206</v>
+        <v>63.168532589876754</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
-        <v>0.11277967803781591</v>
+        <v>0.1102177565725401</v>
       </c>
       <c r="D48">
         <f t="shared" si="3"/>
-        <v>0.11882987643320506</v>
+        <v>0.1161305176795099</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" si="9"/>
@@ -10891,33 +10891,33 @@
       </c>
       <c r="F48" s="3">
         <f t="shared" si="5"/>
-        <v>3.6310322849205212E-2</v>
+        <v>3.5485491663862723E-2</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="0"/>
-        <v>3.6636154083579311E-3</v>
+        <v>3.5832441402687274E-3</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="7"/>
-        <v>11.917128096019868</v>
+        <v>11.622900498181934</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="1"/>
-        <v>1.9834575113242487</v>
+        <v>1.9384009686728332</v>
       </c>
       <c r="B49">
         <f t="shared" si="8"/>
-        <v>62.987240858332186</v>
+        <v>62.942184315624708</v>
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
-        <v>0.10098732585219809</v>
+        <v>9.8693281372528807E-2</v>
       </c>
       <c r="D49">
         <f t="shared" si="3"/>
-        <v>0.10640490965325078</v>
+        <v>0.10398779846093144</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" si="9"/>
@@ -10925,33 +10925,33 @@
       </c>
       <c r="F49" s="3">
         <f t="shared" si="5"/>
-        <v>3.2513680382574295E-2</v>
+        <v>3.1775094343524879E-2</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" ref="G49:G80" si="10">(C49+D49)/B49</f>
-        <v>3.2926070848523963E-3</v>
+        <v>3.2201151268775857E-3</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="7"/>
-        <v>11.949641776402443</v>
+        <v>11.654675592525459</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="1"/>
-        <v>1.776065276076854</v>
+        <v>1.7357198890915606</v>
       </c>
       <c r="B50">
         <f t="shared" si="8"/>
-        <v>62.779848622826741</v>
+        <v>62.739503235791247</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
-        <v>9.0427993413480415E-2</v>
+        <v>8.8373816442784123E-2</v>
       </c>
       <c r="D50">
         <f t="shared" si="3"/>
-        <v>9.5279109413874116E-2</v>
+        <v>9.3114733704999259E-2</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" si="9"/>
@@ -10959,33 +10959,33 @@
       </c>
       <c r="F50" s="3">
         <f t="shared" si="5"/>
-        <v>2.9114018523339835E-2</v>
+        <v>2.8452659754693688E-2</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="10"/>
-        <v>2.9580686621762812E-3</v>
+        <v>2.8927317047076793E-3</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="7"/>
-        <v>11.978755794925782</v>
+        <v>11.683128252280152</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="1"/>
-        <v>1.5903581734805714</v>
+        <v>1.5542313391695965</v>
       </c>
       <c r="B51">
         <f t="shared" si="8"/>
-        <v>62.59414151999939</v>
+        <v>62.558014685643464</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
-        <v>8.0972754984683773E-2</v>
+        <v>7.9133364744287366E-2</v>
       </c>
       <c r="D51">
         <f t="shared" si="3"/>
-        <v>8.5316633605389755E-2</v>
+        <v>8.3378567113433111E-2</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" si="9"/>
@@ -10993,33 +10993,33 @@
       </c>
       <c r="F51" s="3">
         <f t="shared" si="5"/>
-        <v>2.6069828595339573E-2</v>
+        <v>2.5477622139030487E-2</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="10"/>
-        <v>2.6566286325205462E-3</v>
+        <v>2.5977795598909181E-3</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="7"/>
-        <v>12.004825623521121</v>
+        <v>11.708605874419183</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="1"/>
-        <v>1.4240687850974059</v>
+        <v>1.391719407514082</v>
       </c>
       <c r="B52">
         <f t="shared" si="8"/>
-        <v>62.427852131409317</v>
+        <v>62.395502753785742</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
-        <v>7.2506165428549763E-2</v>
+        <v>7.0859103610249552E-2</v>
       </c>
       <c r="D52">
         <f t="shared" si="3"/>
-        <v>7.6395843900450872E-2</v>
+        <v>7.4660423514866528E-2</v>
       </c>
       <c r="E52" s="4">
         <f t="shared" si="9"/>
@@ -11027,33 +11027,33 @@
       </c>
       <c r="F52" s="3">
         <f t="shared" si="5"/>
-        <v>2.33439421097279E-2</v>
+        <v>2.2813657333112136E-2</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="10"/>
-        <v>2.3851855260944273E-3</v>
+        <v>2.3322117893550738E-3</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="7"/>
-        <v>12.028169565630849</v>
+        <v>11.731419531752294</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="1"/>
-        <v>1.2751667759536796</v>
+        <v>1.2461998805700365</v>
       </c>
       <c r="B53">
         <f t="shared" si="8"/>
-        <v>62.278950122080317</v>
+        <v>62.249983226660632</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
-        <v>6.4924850662999314E-2</v>
+        <v>6.345000722101328E-2</v>
       </c>
       <c r="D53">
         <f t="shared" si="3"/>
-        <v>6.8407820592834068E-2</v>
+        <v>6.6853857440795653E-2</v>
       </c>
       <c r="E53" s="4">
         <f t="shared" si="9"/>
@@ -11061,33 +11061,33 @@
       </c>
       <c r="F53" s="3">
         <f t="shared" si="5"/>
-        <v>2.090307695079141E-2</v>
+        <v>2.0428239263166503E-2</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="10"/>
-        <v>2.1408946521171645E-3</v>
+        <v>2.0932353377085241E-3</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="7"/>
-        <v>12.04907264258164</v>
+        <v>11.751847771015461</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="1"/>
-        <v>1.1418341048637513</v>
+        <v>1.1158960160703566</v>
       </c>
       <c r="B54">
         <f t="shared" si="8"/>
-        <v>62.145617450824489</v>
+        <v>62.11967936199882</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
-        <v>5.813624549993094E-2</v>
+        <v>5.6815613114308043E-2</v>
       </c>
       <c r="D54">
         <f t="shared" si="3"/>
-        <v>6.1255032726116238E-2</v>
+        <v>5.9863553463827185E-2</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" si="9"/>
@@ -11095,33 +11095,33 @@
       </c>
       <c r="F54" s="3">
         <f t="shared" si="5"/>
-        <v>1.8717431013017372E-2</v>
+        <v>1.8292242813145121E-2</v>
       </c>
       <c r="G54" s="3">
         <f t="shared" si="10"/>
-        <v>1.9211536247189253E-3</v>
+        <v>1.878296343066972E-3</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="7"/>
-        <v>12.067790073594658</v>
+        <v>11.770140013828605</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="1"/>
-        <v>1.0224428267862584</v>
+        <v>0.99921684963739843</v>
       </c>
       <c r="B55">
         <f t="shared" si="8"/>
-        <v>62.026226172598442</v>
+        <v>62.003000195420682</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
-        <v>5.205746345681455E-2</v>
+        <v>5.0874917670390492E-2</v>
       </c>
       <c r="D55">
         <f t="shared" si="3"/>
-        <v>5.4850147274982927E-2</v>
+        <v>5.3604162429820849E-2</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" si="9"/>
@@ -11129,33 +11129,33 @@
       </c>
       <c r="F55" s="3">
         <f t="shared" si="5"/>
-        <v>1.67603183278624E-2</v>
+        <v>1.6379588217295682E-2</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="10"/>
-        <v>1.7235872199335327E-3</v>
+        <v>1.6850649125189879E-3</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="7"/>
-        <v>12.084550391922519</v>
+        <v>11.786519602045901</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="1"/>
-        <v>0.91553521618748401</v>
+        <v>0.89473776966718555</v>
       </c>
       <c r="B56">
         <f t="shared" si="8"/>
-        <v>61.919318561866646</v>
+        <v>61.89852111532047</v>
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
-        <v>4.6614284741879425E-2</v>
+        <v>4.5555387086321987E-2</v>
       </c>
       <c r="D56">
         <f t="shared" si="3"/>
-        <v>4.9114962839692106E-2</v>
+        <v>4.7999259374719362E-2</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" si="9"/>
@@ -11163,33 +11163,33 @@
       </c>
       <c r="F56" s="3">
         <f t="shared" si="5"/>
-        <v>1.5007843237456964E-2</v>
+        <v>1.4666922635390156E-2</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="10"/>
-        <v>1.5460319946177009E-3</v>
+        <v>1.5114197362929515E-3</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="7"/>
-        <v>12.099558235159977</v>
+        <v>11.801186524681292</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="1"/>
-        <v>0.81980596872502287</v>
+        <v>0.80118312332254804</v>
       </c>
       <c r="B57">
         <f t="shared" si="8"/>
-        <v>61.823589314285073</v>
+        <v>61.804966468859426</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
-        <v>4.1740250056547128E-2</v>
+        <v>4.0792071763733985E-2</v>
       </c>
       <c r="D57">
         <f t="shared" si="3"/>
-        <v>4.3979454834473394E-2</v>
+        <v>4.2980410402604613E-2</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" si="9"/>
@@ -11197,33 +11197,33 @@
       </c>
       <c r="F57" s="3">
         <f t="shared" si="5"/>
-        <v>1.3438608637023952E-2</v>
+        <v>1.3133335022755377E-2</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" si="10"/>
-        <v>1.3865210001842122E-3</v>
+        <v>1.3554328551985794E-3</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="7"/>
-        <v>12.112996843797001</v>
+        <v>11.814319859704048</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="1"/>
-        <v>0.73408626394066112</v>
+        <v>0.71741064126044429</v>
       </c>
       <c r="B58">
         <f t="shared" si="8"/>
-        <v>61.737869609394053</v>
+        <v>61.721193986693088</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
-        <v>3.7375849150760643E-2</v>
+        <v>3.6526813297065433E-2</v>
       </c>
       <c r="D58">
         <f t="shared" si="3"/>
-        <v>3.9380920511954055E-2</v>
+        <v>3.848633713188683E-2</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="9"/>
@@ -11231,33 +11231,33 @@
       </c>
       <c r="F58" s="3">
         <f t="shared" si="5"/>
-        <v>1.203345472375128E-2</v>
+        <v>1.1760100813768659E-2</v>
       </c>
       <c r="G58" s="3">
         <f t="shared" si="10"/>
-        <v>1.2432688420955062E-3</v>
+        <v>1.2153548171009926E-3</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="7"/>
-        <v>12.125030298520752</v>
+        <v>11.826079960517816</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="1"/>
-        <v>0.65732949437345123</v>
+        <v>0.64239749092482901</v>
       </c>
       <c r="B59">
         <f t="shared" si="8"/>
-        <v>61.661112839731338</v>
+        <v>61.646180836264136</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
-        <v>3.3467794223750548E-2</v>
+        <v>3.2707534379875502E-2</v>
       </c>
       <c r="D59">
         <f t="shared" si="3"/>
-        <v>3.5263213384655177E-2</v>
+        <v>3.4462168507806826E-2</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" si="9"/>
@@ -11265,33 +11265,33 @@
       </c>
       <c r="F59" s="3">
         <f t="shared" si="5"/>
-        <v>1.077522506233497E-2</v>
+        <v>1.0530453301494047E-2</v>
       </c>
       <c r="G59" s="3">
         <f t="shared" si="10"/>
-        <v>1.1146572684643293E-3</v>
+        <v>1.089600393349411E-3</v>
       </c>
       <c r="H59" s="3">
         <f t="shared" si="7"/>
-        <v>12.135805523583088</v>
+        <v>11.83661041381931</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="1"/>
-        <v>0.5885984868505646</v>
+        <v>0.57522778812072362</v>
       </c>
       <c r="B60">
         <f t="shared" si="8"/>
-        <v>61.592381832122932</v>
+        <v>61.579011133376454</v>
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
-        <v>2.9968369298721768E-2</v>
+        <v>2.9287602959239902E-2</v>
       </c>
       <c r="D60">
         <f t="shared" si="3"/>
-        <v>3.1576057696118674E-2</v>
+        <v>3.0858770846147437E-2</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" si="9"/>
@@ -11299,33 +11299,33 @@
       </c>
       <c r="F60" s="3">
         <f t="shared" si="5"/>
-        <v>9.6485571109354851E-3</v>
+        <v>9.4293789220851743E-3</v>
       </c>
       <c r="G60" s="3">
         <f t="shared" si="10"/>
-        <v>9.9922141609309423E-4</v>
+        <v>9.7673497346545401E-4</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="7"/>
-        <v>12.145454080694023</v>
+        <v>11.846039792741395</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="1"/>
-        <v>0.52705405993229937</v>
+        <v>0.51508141439018051</v>
       </c>
       <c r="B61">
         <f t="shared" si="8"/>
-        <v>61.530837405128089</v>
+        <v>61.518864759571073</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
-        <v>2.6834847627550663E-2</v>
+        <v>2.6225262874778429E-2</v>
       </c>
       <c r="D61">
         <f t="shared" si="3"/>
-        <v>2.8274434571594606E-2</v>
+        <v>2.7632147928222543E-2</v>
       </c>
       <c r="E61" s="4">
         <f t="shared" si="9"/>
@@ -11333,33 +11333,33 @@
       </c>
       <c r="F61" s="3">
         <f t="shared" si="5"/>
-        <v>8.6396946499427418E-3</v>
+        <v>8.4434339444485751E-3</v>
       </c>
       <c r="G61" s="3">
         <f t="shared" si="10"/>
-        <v>8.956367981195777E-4</v>
+        <v>8.7546171428044535E-4</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" si="7"/>
-        <v>12.154093775343966</v>
+        <v>11.854483226685844</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="1"/>
-        <v>0.47194477780172933</v>
+        <v>0.46122400365418842</v>
       </c>
       <c r="B62">
         <f t="shared" si="8"/>
-        <v>61.475728122928949</v>
+        <v>61.465007348768069</v>
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
-        <v>2.4028970012211721E-2</v>
+        <v>2.3483124030614314E-2</v>
       </c>
       <c r="D62">
         <f t="shared" si="3"/>
-        <v>2.5318032353407537E-2</v>
+        <v>2.4742903822511816E-2</v>
       </c>
       <c r="E62" s="4">
         <f t="shared" si="9"/>
@@ -11367,33 +11367,33 @@
       </c>
       <c r="F62" s="3">
         <f t="shared" si="5"/>
-        <v>7.7363198233701969E-3</v>
+        <v>7.5605803270126781E-3</v>
       </c>
       <c r="G62" s="3">
         <f t="shared" si="10"/>
-        <v>8.0270708249186278E-4</v>
+        <v>7.8460948649171055E-4</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="7"/>
-        <v>12.161830095167337</v>
+        <v>11.862043807012856</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="1"/>
-        <v>0.42259777549750843</v>
+        <v>0.41299797586106857</v>
       </c>
       <c r="B63">
         <f t="shared" si="8"/>
-        <v>61.426381120563327</v>
+        <v>61.416781320914943</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
-        <v>2.1516477673417751E-2</v>
+        <v>2.1027705875450824E-2</v>
       </c>
       <c r="D63">
         <f t="shared" si="3"/>
-        <v>2.267075440978588E-2</v>
+        <v>2.2155761874189432E-2</v>
       </c>
       <c r="E63" s="4">
         <f t="shared" si="9"/>
@@ -11401,33 +11401,33 @@
       </c>
       <c r="F63" s="3">
         <f t="shared" si="5"/>
-        <v>6.9274027421637463E-3</v>
+        <v>6.7700387374729498E-3</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" si="10"/>
-        <v>7.1935268327912852E-4</v>
+        <v>7.0312163582780438E-4</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="7"/>
-        <v>12.168757497909501</v>
+        <v>11.86881384575033</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="1"/>
-        <v>0.3784105434692856</v>
+        <v>0.36981450816515754</v>
       </c>
       <c r="B64">
         <f t="shared" si="8"/>
-        <v>61.382193888480124</v>
+        <v>61.3735978531653</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
-        <v>1.9266693962970864E-2</v>
+        <v>1.882902861680703E-2</v>
       </c>
       <c r="D64">
         <f t="shared" si="3"/>
-        <v>2.0300278407680256E-2</v>
+        <v>1.9839133989567041E-2</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" si="9"/>
@@ -11435,33 +11435,33 @@
       </c>
       <c r="F64" s="3">
         <f t="shared" si="5"/>
-        <v>6.2030668131338729E-3</v>
+        <v>6.062156940933372E-3</v>
       </c>
       <c r="G64" s="3">
         <f t="shared" si="10"/>
-        <v>6.446001660112842E-4</v>
+        <v>6.3004555637892728E-4</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="7"/>
-        <v>12.174960564722635</v>
+        <v>11.874876002691263</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="1"/>
-        <v>0.33884357114786684</v>
+        <v>0.33114634560690032</v>
       </c>
       <c r="B65">
         <f t="shared" si="8"/>
-        <v>61.342626916109474</v>
+        <v>61.33492969055893</v>
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
-        <v>1.725214981267028E-2</v>
+        <v>1.6860247178292962E-2</v>
       </c>
       <c r="D65">
         <f t="shared" si="3"/>
-        <v>1.8177661668437695E-2</v>
+        <v>1.7764734956576638E-2</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" si="9"/>
@@ -11469,33 +11469,33 @@
       </c>
       <c r="F65" s="3">
         <f t="shared" si="5"/>
-        <v>5.5544681492252224E-3</v>
+        <v>5.4282919495118875E-3</v>
       </c>
       <c r="G65" s="3">
         <f t="shared" si="10"/>
-        <v>5.7757245266918278E-4</v>
+        <v>5.6452305903921659E-4</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="7"/>
-        <v>12.18051503287186</v>
+        <v>11.880304294640775</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="1"/>
-        <v>0.30341375971084211</v>
+        <v>0.29652136351511077</v>
       </c>
       <c r="B66">
         <f t="shared" si="8"/>
-        <v>61.307197104628365</v>
+        <v>61.300304708424058</v>
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
-        <v>1.5448248346646973E-2</v>
+        <v>1.5097323430662229E-2</v>
       </c>
       <c r="D66">
         <f t="shared" si="3"/>
-        <v>1.6276987787870744E-2</v>
+        <v>1.5907237092272753E-2</v>
       </c>
       <c r="E66" s="4">
         <f t="shared" si="9"/>
@@ -11503,33 +11503,33 @@
       </c>
       <c r="F66" s="3">
         <f t="shared" si="5"/>
-        <v>4.9736875887635978E-3</v>
+        <v>4.8607044944959377E-3</v>
       </c>
       <c r="G66" s="3">
         <f t="shared" si="10"/>
-        <v>5.1747980062397331E-4</v>
+        <v>5.0578150745593682E-4</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" si="7"/>
-        <v>12.185488720460624</v>
+        <v>11.88516499913527</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="1"/>
-        <v>0.27168852361580398</v>
+        <v>0.26551680303075803</v>
       </c>
       <c r="B67">
         <f t="shared" si="8"/>
-        <v>61.275471868493852</v>
+        <v>61.269300147901127</v>
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>1.3832964562156679E-2</v>
+        <v>1.3518732694706877E-2</v>
       </c>
       <c r="D67">
         <f t="shared" si="3"/>
-        <v>1.4575050206073597E-2</v>
+        <v>1.4243961000730106E-2</v>
       </c>
       <c r="E67" s="4">
         <f t="shared" si="9"/>
@@ -11537,33 +11537,33 @@
       </c>
       <c r="F67" s="3">
         <f t="shared" si="5"/>
-        <v>4.4536340052780954E-3</v>
+        <v>4.3524645325936362E-3</v>
       </c>
       <c r="G67" s="3">
         <f t="shared" si="10"/>
-        <v>4.6361152190223909E-4</v>
+        <v>4.5312568657417639E-4</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" si="7"/>
-        <v>12.189942354465902</v>
+        <v>11.889517463667865</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="1"/>
-        <v>0.24328050888291924</v>
+        <v>0.2377541093698658</v>
       </c>
       <c r="B68">
         <f t="shared" si="8"/>
-        <v>61.247063853725621</v>
+        <v>61.241537454205691</v>
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
-        <v>1.2386576412037699E-2</v>
+        <v>1.2105200932488583E-2</v>
       </c>
       <c r="D68">
         <f t="shared" si="3"/>
-        <v>1.305106886348225E-2</v>
+        <v>1.275459866558947E-2</v>
       </c>
       <c r="E68" s="4">
         <f t="shared" si="9"/>
@@ -11571,33 +11571,33 @@
       </c>
       <c r="F68" s="3">
         <f t="shared" si="5"/>
-        <v>3.9879577273365108E-3</v>
+        <v>3.8973666325397005E-3</v>
       </c>
       <c r="G68" s="3">
         <f t="shared" si="10"/>
-        <v>4.153284039259719E-4</v>
+        <v>4.0593036412038731E-4</v>
       </c>
       <c r="H68" s="3">
         <f t="shared" si="7"/>
-        <v>12.193930312193238</v>
+        <v>11.893414830300404</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>0.21784286363904648</v>
+        <v>0.21289430980272195</v>
       </c>
       <c r="B69">
         <f t="shared" si="8"/>
-        <v>61.221626208450097</v>
+        <v>61.216677654607615</v>
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>1.109142400545023E-2</v>
+        <v>1.0839469418113291E-2</v>
       </c>
       <c r="D69">
         <f t="shared" si="3"/>
-        <v>1.1686436483654455E-2</v>
+        <v>1.1420965496319411E-2</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" si="9"/>
@@ -11605,33 +11605,33 @@
       </c>
       <c r="F69" s="3">
         <f t="shared" si="5"/>
-        <v>3.5709730112927218E-3</v>
+        <v>3.4898542089631945E-3</v>
       </c>
       <c r="G69" s="3">
         <f t="shared" si="10"/>
-        <v>3.720557897555615E-4</v>
+        <v>3.6363350262209502E-4</v>
       </c>
       <c r="H69" s="3">
         <f t="shared" si="7"/>
-        <v>12.197501285204531</v>
+        <v>11.896904684509368</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>0.19506500317828099</v>
+        <v>0.19063387491598358</v>
       </c>
       <c r="B70">
         <f t="shared" si="8"/>
-        <v>61.19884834796099</v>
+        <v>61.194417219693179</v>
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>9.9316939868165279E-3</v>
+        <v>9.70608401475378E-3</v>
       </c>
       <c r="D70">
         <f t="shared" si="3"/>
-        <v>1.0464491384964669E-2</v>
+        <v>1.0226778300757017E-2</v>
       </c>
       <c r="E70" s="4">
         <f t="shared" si="9"/>
@@ -11639,29 +11639,29 @@
       </c>
       <c r="F70" s="3">
         <f t="shared" si="5"/>
-        <v>3.1975886203532422E-3</v>
+        <v>3.1249516784312981E-3</v>
       </c>
       <c r="G70" s="3">
         <f t="shared" si="10"/>
-        <v>3.3327727436656499E-4</v>
+        <v>3.257300783493063E-4</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>0.17466881783187915</v>
+        <v>0.17070101262527843</v>
       </c>
       <c r="B71">
         <f t="shared" si="8"/>
-        <v>61.17845216258921</v>
+        <v>61.174484357377672</v>
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
-        <v>8.8932264603083754E-3</v>
+        <v>8.6912064850735594E-3</v>
       </c>
       <c r="D71">
         <f t="shared" si="3"/>
-        <v>9.3703140473286942E-3</v>
+        <v>9.1574564730577072E-3</v>
       </c>
       <c r="E71" s="4">
         <f t="shared" si="9"/>
@@ -11669,29 +11669,29 @@
       </c>
       <c r="F71" s="3">
         <f t="shared" si="5"/>
-        <v>2.8632456623667313E-3</v>
+        <v>2.7982037093270407E-3</v>
       </c>
       <c r="G71" s="3">
         <f t="shared" si="10"/>
-        <v>2.9852897322572792E-4</v>
+        <v>2.9176646351214744E-4</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>0.15640527734696411</v>
+        <v>0.15285234968935679</v>
       </c>
       <c r="B72">
         <f t="shared" si="8"/>
-        <v>61.16018862208157</v>
+        <v>61.156635694419542</v>
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>7.96334210249648E-3</v>
+        <v>7.7824455312114601E-3</v>
       </c>
       <c r="D72">
         <f t="shared" si="3"/>
-        <v>8.3905449501079452E-3</v>
+        <v>8.199943969621178E-3</v>
       </c>
       <c r="E72" s="4">
         <f t="shared" si="9"/>
@@ -11699,29 +11699,29 @@
       </c>
       <c r="F72" s="3">
         <f t="shared" si="5"/>
-        <v>2.5638619273533614E-3</v>
+        <v>2.5056208238145583E-3</v>
       </c>
       <c r="G72" s="3">
         <f t="shared" si="10"/>
-        <v>2.6739432008062738E-4</v>
+        <v>2.6133532885444532E-4</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>0.14005139031470296</v>
+        <v>0.13686996020840866</v>
       </c>
       <c r="B73">
         <f t="shared" si="8"/>
-        <v>61.14383473502896</v>
+        <v>61.140653304918708</v>
       </c>
       <c r="C73">
         <f t="shared" si="2"/>
-        <v>7.1306873522697664E-3</v>
+        <v>6.9687055013926934E-3</v>
       </c>
       <c r="D73">
         <f t="shared" si="3"/>
-        <v>7.513221457059978E-3</v>
+        <v>7.3425498993907818E-3</v>
       </c>
       <c r="E73" s="4">
         <f t="shared" si="9"/>
@@ -11729,29 +11729,29 @@
       </c>
       <c r="F73" s="3">
         <f t="shared" si="5"/>
-        <v>2.295782045155681E-3</v>
+        <v>2.2436306877180456E-3</v>
       </c>
       <c r="G73" s="3">
         <f t="shared" si="10"/>
-        <v>2.3949935218800289E-4</v>
+        <v>2.3407102520496206E-4</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>0.12540748152359074</v>
+        <v>0.12255870482543134</v>
       </c>
       <c r="B74">
         <f t="shared" si="8"/>
-        <v>61.129190826219627</v>
+        <v>61.126342049517923</v>
       </c>
       <c r="C74">
         <f t="shared" si="2"/>
-        <v>6.3850957878451931E-3</v>
+        <v>6.2400509159209654E-3</v>
       </c>
       <c r="D74">
         <f t="shared" si="3"/>
-        <v>6.727631756755067E-3</v>
+        <v>6.5748057821832413E-3</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" si="9"/>
@@ -11759,29 +11759,29 @@
       </c>
       <c r="F74" s="3">
         <f t="shared" si="5"/>
-        <v>2.0557328546551012E-3</v>
+        <v>2.0090344935776994E-3</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" si="10"/>
-        <v>2.1450844297739221E-4</v>
+        <v>2.0964540439411539E-4</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>0.11229475399530449</v>
+        <v>0.1097438481432696</v>
       </c>
       <c r="B75">
         <f t="shared" si="8"/>
-        <v>61.116078098675025</v>
+        <v>61.113527192819816</v>
       </c>
       <c r="C75">
         <f t="shared" si="2"/>
-        <v>5.7174639983313246E-3</v>
+        <v>5.5875851584635955E-3</v>
       </c>
       <c r="D75">
         <f t="shared" si="3"/>
-        <v>6.0241840751238873E-3</v>
+        <v>5.8873377322251662E-3</v>
       </c>
       <c r="E75" s="4">
         <f t="shared" si="9"/>
@@ -11789,29 +11789,29 @@
       </c>
       <c r="F75" s="3">
         <f t="shared" si="5"/>
-        <v>1.8407834396239053E-3</v>
+        <v>1.7989679043348694E-3</v>
       </c>
       <c r="G75" s="3">
         <f t="shared" si="10"/>
-        <v>1.9212044422251248E-4</v>
+        <v>1.8776404206689187E-4</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>0.10055310593646083</v>
+        <v>9.8268925266855767E-2</v>
       </c>
       <c r="B76">
         <f t="shared" si="8"/>
-        <v>61.104336450601572</v>
+        <v>61.102052269929125</v>
       </c>
       <c r="C76">
         <f t="shared" si="2"/>
-        <v>5.1196404342819957E-3</v>
+        <v>5.0033418514942611E-3</v>
       </c>
       <c r="D76">
         <f t="shared" si="3"/>
-        <v>5.3942895632684805E-3</v>
+        <v>5.2717520063037451E-3</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" si="9"/>
@@ -11819,29 +11819,29 @@
       </c>
       <c r="F76" s="3">
         <f t="shared" si="5"/>
-        <v>1.6483093432690943E-3</v>
+        <v>1.6108660807825359E-3</v>
       </c>
       <c r="G76" s="3">
         <f t="shared" si="10"/>
-        <v>1.7206520205076159E-4</v>
+        <v>1.6816282720596618E-4</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>9.0039175951992387E-2</v>
+        <v>8.7993831421847982E-2</v>
       </c>
       <c r="B77">
         <f t="shared" si="8"/>
-        <v>61.093822520604022</v>
+        <v>61.091777176071332</v>
       </c>
       <c r="C77">
         <f t="shared" si="2"/>
-        <v>4.5843258801427341E-3</v>
+        <v>4.4801875896240736E-3</v>
       </c>
       <c r="D77">
         <f t="shared" si="3"/>
-        <v>4.8302574306360807E-3</v>
+        <v>4.7205325191130281E-3</v>
       </c>
       <c r="E77" s="4">
         <f t="shared" si="9"/>
@@ -11849,29 +11849,29 @@
       </c>
       <c r="F77" s="3">
         <f t="shared" si="5"/>
-        <v>1.4759605245382446E-3</v>
+        <v>1.4424323657822313E-3</v>
       </c>
       <c r="G77" s="3">
         <f t="shared" si="10"/>
-        <v>1.5410041346821483E-4</v>
+        <v>1.5060488553508434E-4</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>8.0624592652927762E-2</v>
+        <v>7.8793111324559129E-2</v>
       </c>
       <c r="B78">
         <f t="shared" si="8"/>
-        <v>61.084407937293243</v>
+        <v>61.082576455962595</v>
       </c>
       <c r="C78">
         <f t="shared" si="2"/>
-        <v>4.1049843333956426E-3</v>
+        <v>4.0117348432279938E-3</v>
       </c>
       <c r="D78">
         <f t="shared" si="3"/>
-        <v>4.3252010431709641E-3</v>
+        <v>4.2269490744930114E-3</v>
       </c>
       <c r="E78" s="4">
         <f t="shared" si="9"/>
@@ -11879,29 +11879,29 @@
       </c>
       <c r="F78" s="3">
         <f t="shared" si="5"/>
-        <v>1.3216326649430066E-3</v>
+        <v>1.2916102428859322E-3</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="10"/>
-        <v>1.3800879244373936E-4</v>
+        <v>1.3487780633583251E-4</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>7.2194407286849088E-2</v>
+        <v>7.0554427417092669E-2</v>
       </c>
       <c r="B79">
         <f t="shared" si="8"/>
-        <v>61.075977751916675</v>
+        <v>61.074337772044878</v>
       </c>
       <c r="C79">
         <f t="shared" si="2"/>
-        <v>3.6757632022657791E-3</v>
+        <v>3.5922639689559797E-3</v>
       </c>
       <c r="D79">
         <f t="shared" si="3"/>
-        <v>3.8729538399329827E-3</v>
+        <v>3.784975192102974E-3</v>
       </c>
       <c r="E79" s="4">
         <f t="shared" si="9"/>
@@ -11909,29 +11909,29 @@
       </c>
       <c r="F79" s="3">
         <f t="shared" si="5"/>
-        <v>1.1834414755709233E-3</v>
+        <v>1.1565582269938979E-3</v>
       </c>
       <c r="G79" s="3">
         <f t="shared" si="10"/>
-        <v>1.235955169291067E-4</v>
+        <v>1.2079114453264993E-4</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>6.4645690254043722E-2</v>
+        <v>6.3177188265212958E-2</v>
       </c>
       <c r="B80">
         <f t="shared" si="8"/>
-        <v>61.068429034874477</v>
+        <v>61.066960532883819</v>
       </c>
       <c r="C80">
         <f t="shared" si="2"/>
-        <v>3.2914218476334887E-3</v>
+        <v>3.2166533748963833E-3</v>
       </c>
       <c r="D80">
         <f t="shared" si="3"/>
-        <v>3.4679940415567913E-3</v>
+        <v>3.3892145262129853E-3</v>
       </c>
       <c r="E80" s="4">
         <f t="shared" si="9"/>
@@ -11939,29 +11939,29 @@
       </c>
       <c r="F80" s="3">
         <f t="shared" si="5"/>
-        <v>1.0596996905809508E-3</v>
+        <v>1.0356273804692506E-3</v>
       </c>
       <c r="G80" s="3">
         <f t="shared" si="10"/>
-        <v>1.1068593045565601E-4</v>
+        <v>1.0817417214587238E-4</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>5.7886274373262041E-2</v>
+        <v>5.6571320372317442E-2</v>
       </c>
       <c r="B81">
         <f t="shared" si="8"/>
-        <v>61.061669618985285</v>
+        <v>61.060354664982704</v>
       </c>
       <c r="C81">
         <f t="shared" si="2"/>
-        <v>2.9472675966723595E-3</v>
+        <v>2.8803169877402906E-3</v>
       </c>
       <c r="D81">
         <f t="shared" si="3"/>
-        <v>3.1053772312661953E-3</v>
+        <v>3.0348349782207667E-3</v>
       </c>
       <c r="E81" s="4">
         <f t="shared" si="9"/>
@@ -11969,29 +11969,29 @@
       </c>
       <c r="F81" s="3">
         <f t="shared" si="5"/>
-        <v>9.488964662791588E-4</v>
+        <v>9.2734118018888978E-4</v>
       </c>
       <c r="G81" s="3">
         <f t="shared" ref="G81:G112" si="11">(C81+D81)/B81</f>
-        <v>9.9123474115694139E-5</v>
+        <v>9.6873855358611569E-5</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" ref="A82:A136" si="12">($B82-$E$10)*(1-EXP(-$G$10*24)*EXP(-$G$11*24))</f>
-        <v>5.1833629552854123E-2</v>
+        <v>5.0656168413712399E-2</v>
       </c>
       <c r="B82">
         <f t="shared" si="8"/>
-        <v>61.055616974157346</v>
+        <v>61.054439513016739</v>
       </c>
       <c r="C82">
         <f t="shared" ref="C82:C136" si="13">$A82 / (1 + (24*$G$11))</f>
-        <v>2.6390984469646548E-3</v>
+        <v>2.5791482584388535E-3</v>
       </c>
       <c r="D82">
         <f t="shared" ref="D82:D136" si="14">$A82 / (24*$G$11)</f>
-        <v>2.7806759852845074E-3</v>
+        <v>2.7175096984266957E-3</v>
       </c>
       <c r="E82" s="4">
         <f t="shared" si="9"/>
@@ -11999,29 +11999,29 @@
       </c>
       <c r="F82" s="3">
         <f t="shared" ref="F82:F136" si="15">B82/($E$10)-1</f>
-        <v>8.4967893424914287E-4</v>
+        <v>8.3037748971470648E-4</v>
       </c>
       <c r="G82" s="3">
         <f t="shared" si="11"/>
-        <v>8.8767826792138685E-5</v>
+        <v>8.6753035473142084E-5</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="12"/>
-        <v>4.6413855127349794E-2</v>
+        <v>4.5359510463433873E-2</v>
       </c>
       <c r="B83">
         <f t="shared" si="8"/>
-        <v>61.050197199725098</v>
+        <v>61.04914285505987</v>
       </c>
       <c r="C83">
         <f t="shared" si="13"/>
-        <v>2.3631517615282757E-3</v>
+        <v>2.3094700226820955E-3</v>
       </c>
       <c r="D83">
         <f t="shared" si="14"/>
-        <v>2.4899258155459273E-3</v>
+        <v>2.4333642567190587E-3</v>
       </c>
       <c r="E83" s="4">
         <f t="shared" si="9"/>
@@ -12029,29 +12029,29 @@
       </c>
       <c r="F83" s="3">
         <f t="shared" si="15"/>
-        <v>7.608356833044283E-4</v>
+        <v>7.4355241647383608E-4</v>
       </c>
       <c r="G83" s="3">
         <f t="shared" si="11"/>
-        <v>7.9493233432111768E-5</v>
+        <v>7.7688793938702439E-5</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="12"/>
-        <v>4.1560777556313974E-2</v>
+        <v>4.061667618993739E-2</v>
       </c>
       <c r="B84">
         <f t="shared" si="8"/>
-        <v>61.045344122148023</v>
+        <v>61.044400020780472</v>
       </c>
       <c r="C84">
         <f t="shared" si="13"/>
-        <v>2.1160583283420138E-3</v>
+        <v>2.0679896040162161E-3</v>
       </c>
       <c r="D84">
         <f t="shared" si="14"/>
-        <v>2.2295767646900218E-3</v>
+        <v>2.1789293371453091E-3</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" si="9"/>
@@ -12059,29 +12059,29 @@
       </c>
       <c r="F84" s="3">
         <f t="shared" si="15"/>
-        <v>6.8128196858374679E-4</v>
+        <v>6.658058568447256E-4</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" si="11"/>
-        <v>7.1187002965151353E-5</v>
+        <v>6.9570983410694633E-5</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="12"/>
-        <v>3.7215142468689767E-2</v>
+        <v>3.6369757254058312E-2</v>
       </c>
       <c r="B85">
         <f t="shared" si="8"/>
-        <v>61.040998487054992</v>
+        <v>61.040153101839309</v>
       </c>
       <c r="C85">
         <f t="shared" si="13"/>
-        <v>1.8948012234516489E-3</v>
+        <v>1.8517586114202885E-3</v>
       </c>
       <c r="D85">
         <f t="shared" si="14"/>
-        <v>1.9964500623308006E-3</v>
+        <v>1.9510983787825115E-3</v>
       </c>
       <c r="E85" s="4">
         <f t="shared" si="9"/>
@@ -12089,29 +12089,29 @@
       </c>
       <c r="F85" s="3">
         <f t="shared" si="15"/>
-        <v>6.1004646719720057E-4</v>
+        <v>5.96188552665744E-4</v>
       </c>
       <c r="G85" s="3">
         <f t="shared" si="11"/>
-        <v>6.3748159142705863E-5</v>
+        <v>6.2300908450509923E-5</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="12"/>
-        <v>3.3323891187752336E-2</v>
+        <v>3.2566900268584727E-2</v>
       </c>
       <c r="B86">
         <f t="shared" si="8"/>
-        <v>61.037107235769213</v>
+        <v>61.036350244849103</v>
       </c>
       <c r="C86">
         <f t="shared" si="13"/>
-        <v>1.6966789753887455E-3</v>
+        <v>1.658136940490254E-3</v>
       </c>
       <c r="D86">
         <f t="shared" si="14"/>
-        <v>1.7876993133874536E-3</v>
+        <v>1.7470896457225369E-3</v>
       </c>
       <c r="E86" s="4">
         <f t="shared" si="9"/>
@@ -12119,29 +12119,29 @@
       </c>
       <c r="F86" s="3">
         <f t="shared" si="15"/>
-        <v>5.4625941871511152E-4</v>
+        <v>5.3385050112675358E-4</v>
       </c>
       <c r="G86" s="3">
         <f t="shared" si="11"/>
-        <v>5.708622912480147E-5</v>
+        <v>5.5790140998808494E-5</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="12"/>
-        <v>2.9839512903305918E-2</v>
+        <v>2.9161673686604498E-2</v>
       </c>
       <c r="B87">
         <f t="shared" si="8"/>
-        <v>61.033622857480431</v>
+        <v>61.032945018262886</v>
       </c>
       <c r="C87">
         <f t="shared" si="13"/>
-        <v>1.5192725811530642E-3</v>
+        <v>1.4847605386910491E-3</v>
       </c>
       <c r="D87">
         <f t="shared" si="14"/>
-        <v>1.6007757446003731E-3</v>
+        <v>1.5644122630532485E-3</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" si="9"/>
@@ -12149,29 +12149,29 @@
       </c>
       <c r="F87" s="3">
         <f t="shared" si="15"/>
-        <v>4.8914200570004951E-4</v>
+        <v>4.7803057653306169E-4</v>
       </c>
       <c r="G87" s="3">
         <f t="shared" si="11"/>
-        <v>5.1120156066092624E-5</v>
+        <v>4.9959457155998191E-5</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="12"/>
-        <v>2.6719464581433108E-2</v>
+        <v>2.6112500888660357E-2</v>
       </c>
       <c r="B88">
         <f t="shared" si="8"/>
-        <v>61.030502809154676</v>
+        <v>61.029895845461148</v>
       </c>
       <c r="C88">
         <f t="shared" si="13"/>
-        <v>1.3604159710383318E-3</v>
+        <v>1.3295125411072457E-3</v>
       </c>
       <c r="D88">
         <f t="shared" si="14"/>
-        <v>1.4333970849077829E-3</v>
+        <v>1.4008358041525584E-3</v>
       </c>
       <c r="E88" s="4">
         <f t="shared" si="9"/>
@@ -12179,29 +12179,29 @@
       </c>
       <c r="F88" s="3">
         <f t="shared" si="15"/>
-        <v>4.3799684461820476E-4</v>
+        <v>4.280472372291122E-4</v>
       </c>
       <c r="G88" s="3">
         <f t="shared" si="11"/>
-        <v>4.5777323262148162E-5</v>
+        <v>4.473788308886427E-5</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="12"/>
-        <v>2.3925651528964503E-2</v>
+        <v>2.3382152546797753E-2</v>
       </c>
       <c r="B89">
         <f t="shared" si="8"/>
-        <v>61.027708996098731</v>
+        <v>61.027165497115888</v>
       </c>
       <c r="C89">
         <f t="shared" si="13"/>
-        <v>1.2181695616804618E-3</v>
+        <v>1.1904974242643359E-3</v>
       </c>
       <c r="D89">
         <f t="shared" si="14"/>
-        <v>1.2835196997161436E-3</v>
+        <v>1.2543630579610722E-3</v>
       </c>
       <c r="E89" s="4">
         <f t="shared" si="9"/>
@@ -12209,29 +12209,29 @@
       </c>
       <c r="F89" s="3">
         <f t="shared" si="15"/>
-        <v>3.9219947103297237E-4</v>
+        <v>3.8329020421290494E-4</v>
       </c>
       <c r="G89" s="3">
         <f t="shared" si="11"/>
-        <v>4.099267861352175E-5</v>
+        <v>4.0061839056591135E-5</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="12"/>
-        <v>2.1423962270676774E-2</v>
+        <v>2.0937292067618657E-2</v>
       </c>
       <c r="B90">
         <f t="shared" si="8"/>
-        <v>61.025207306837331</v>
+        <v>61.024720636633667</v>
       </c>
       <c r="C90">
         <f t="shared" si="13"/>
-        <v>1.0907965744270201E-3</v>
+        <v>1.0660178624565418E-3</v>
       </c>
       <c r="D90">
         <f t="shared" si="14"/>
-        <v>1.1493136388407122E-3</v>
+        <v>1.1232056437404014E-3</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" si="9"/>
@@ -12239,29 +12239,29 @@
       </c>
       <c r="F90" s="3">
         <f t="shared" si="15"/>
-        <v>3.5119071511235944E-4</v>
+        <v>3.4321300984596625E-4</v>
       </c>
       <c r="G90" s="3">
         <f t="shared" si="11"/>
-        <v>3.6707949257826579E-5</v>
+        <v>3.5874371621174347E-5</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="12"/>
-        <v>1.9183852060199302E-2</v>
+        <v>1.8748068564142854E-2</v>
       </c>
       <c r="B91">
         <f t="shared" si="8"/>
-        <v>61.022967196624066</v>
+        <v>61.022531413127467</v>
       </c>
       <c r="C91">
         <f t="shared" si="13"/>
-        <v>9.7674182988183073E-4</v>
+        <v>9.5455400399395451E-4</v>
       </c>
       <c r="D91">
         <f t="shared" si="14"/>
-        <v>1.0291402934585667E-3</v>
+        <v>1.0057621755702204E-3</v>
       </c>
       <c r="E91" s="4">
         <f t="shared" si="9"/>
@@ -12269,29 +12269,29 @@
       </c>
       <c r="F91" s="3">
         <f t="shared" si="15"/>
-        <v>3.1446987436378748E-4</v>
+        <v>3.0732632567365137E-4</v>
       </c>
       <c r="G91" s="3">
         <f t="shared" si="11"/>
-        <v>3.2870937214134149E-5</v>
+        <v>3.2124465081474186E-5</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="12"/>
-        <v>1.717796993935318E-2</v>
+        <v>1.6787752387011957E-2</v>
       </c>
       <c r="B92">
         <f t="shared" si="8"/>
-        <v>61.020961314500724</v>
+        <v>61.020571096947897</v>
       </c>
       <c r="C92">
         <f t="shared" si="13"/>
-        <v>8.7461275970893788E-4</v>
+        <v>8.5474491434973964E-4</v>
       </c>
       <c r="D92">
         <f t="shared" si="14"/>
-        <v>9.2153238926847225E-4</v>
+        <v>9.0059870999128979E-4</v>
       </c>
       <c r="E92" s="4">
         <f t="shared" si="9"/>
@@ -12299,29 +12299,29 @@
       </c>
       <c r="F92" s="3">
         <f t="shared" si="15"/>
-        <v>2.8158860023008714E-4</v>
+        <v>2.7519198789827115E-4</v>
       </c>
       <c r="G92" s="3">
         <f t="shared" si="11"/>
-        <v>2.943488778749513E-5</v>
+        <v>2.8766424056441311E-5</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="12"/>
-        <v>1.5381824792608422E-2</v>
+        <v>1.5032408764857131E-2</v>
       </c>
       <c r="B93">
         <f t="shared" si="8"/>
-        <v>61.019165169351744</v>
+        <v>61.018815753323558</v>
       </c>
       <c r="C93">
         <f t="shared" si="13"/>
-        <v>7.831624038648875E-4</v>
+        <v>7.653719596274703E-4</v>
       </c>
       <c r="D93">
         <f t="shared" si="14"/>
-        <v>8.2517607158970286E-4</v>
+        <v>8.064312380593637E-4</v>
       </c>
       <c r="E93" s="4">
         <f t="shared" si="9"/>
@@ -12329,29 +12329,29 @@
       </c>
       <c r="F93" s="3">
         <f t="shared" si="15"/>
-        <v>2.5214542391371886E-4</v>
+        <v>2.4641764755251039E-4</v>
       </c>
       <c r="G93" s="3">
         <f t="shared" si="11"/>
-        <v>2.6357923301487822E-5</v>
+        <v>2.5759319945523876E-5</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="12"/>
-        <v>1.3773486319160115E-2</v>
+        <v>1.3460605569121186E-2</v>
       </c>
       <c r="B94">
         <f t="shared" si="8"/>
-        <v>61.017556830876295</v>
+        <v>61.017243950125867</v>
       </c>
       <c r="C94">
         <f t="shared" si="13"/>
-        <v>7.0127418565429889E-4</v>
+        <v>6.8534392746794342E-4</v>
       </c>
       <c r="D94">
         <f t="shared" si="14"/>
-        <v>7.3889486365757192E-4</v>
+        <v>7.2211000804556225E-4</v>
       </c>
       <c r="E94" s="4">
         <f t="shared" si="9"/>
@@ -12359,29 +12359,29 @@
       </c>
       <c r="F94" s="3">
         <f t="shared" si="15"/>
-        <v>2.257808545824691E-4</v>
+        <v>2.2065198005583042E-4</v>
       </c>
       <c r="G94" s="3">
         <f t="shared" si="11"/>
-        <v>2.3602535468662224E-5</v>
+        <v>2.3066494721785977E-5</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="12"/>
-        <v>1.233331727164185E-2</v>
+        <v>1.2053151635358868E-2</v>
       </c>
       <c r="B95">
         <f t="shared" si="8"/>
-        <v>61.016116661826985</v>
+        <v>61.015836496190353</v>
       </c>
       <c r="C95">
         <f t="shared" si="13"/>
-        <v>6.2794827871975867E-4</v>
+        <v>6.1368370373271594E-4</v>
       </c>
       <c r="D95">
         <f t="shared" si="14"/>
-        <v>6.6163530225447518E-4</v>
+        <v>6.4660548737493541E-4</v>
       </c>
       <c r="E95" s="4">
         <f t="shared" si="9"/>
@@ -12389,29 +12389,29 @@
       </c>
       <c r="F95" s="3">
         <f t="shared" si="15"/>
-        <v>2.0217299011315859E-4</v>
+        <v>1.9758039566641905E-4</v>
       </c>
       <c r="G95" s="3">
         <f t="shared" si="11"/>
-        <v>2.1135130380741285E-5</v>
+        <v>2.0655116171132719E-5</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="12"/>
-        <v>1.1043733692269235E-2</v>
+        <v>1.0792862445818343E-2</v>
       </c>
       <c r="B96">
         <f t="shared" si="8"/>
-        <v>61.014827078246007</v>
+        <v>61.014576206999244</v>
       </c>
       <c r="C96">
         <f t="shared" si="13"/>
-        <v>5.6228939951503216E-4</v>
+        <v>5.4951634228157093E-4</v>
       </c>
       <c r="D96">
         <f t="shared" si="14"/>
-        <v>5.9245407529597797E-4</v>
+        <v>5.7899579239311738E-4</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" si="9"/>
@@ -12419,29 +12419,29 @@
       </c>
       <c r="F96" s="3">
         <f t="shared" si="15"/>
-        <v>1.8103358678001058E-4</v>
+        <v>1.7692119844903154E-4</v>
       </c>
       <c r="G96" s="3">
         <f t="shared" si="11"/>
-        <v>1.8925620707408641E-5</v>
+        <v>1.8495779284708559E-5</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="12"/>
-        <v>9.8889902188922241E-3</v>
+        <v>9.6643503125451568E-3</v>
       </c>
       <c r="B97">
         <f t="shared" si="8"/>
-        <v>61.013672334771194</v>
+        <v>61.013447694864567</v>
       </c>
       <c r="C97">
         <f t="shared" si="13"/>
-        <v>5.0349587620745909E-4</v>
+        <v>4.9205838218897998E-4</v>
       </c>
       <c r="D97">
         <f t="shared" si="14"/>
-        <v>5.3050650432163039E-4</v>
+        <v>5.1845543249230957E-4</v>
       </c>
       <c r="E97" s="4">
         <f t="shared" si="9"/>
@@ -12449,29 +12449,29 @@
       </c>
       <c r="F97" s="3">
         <f t="shared" si="15"/>
-        <v>1.6210453989962126E-4</v>
+        <v>1.5842214686889733E-4</v>
       </c>
       <c r="G97" s="3">
         <f t="shared" si="11"/>
-        <v>1.694706024013277E-5</v>
+        <v>1.6562149048435816E-5</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="12"/>
-        <v>8.8549878396503735E-3</v>
+        <v>8.6538364991255168E-3</v>
       </c>
       <c r="B98">
         <f t="shared" si="8"/>
-        <v>61.012638332390665</v>
+        <v>61.01243718104989</v>
       </c>
       <c r="C98">
         <f t="shared" si="13"/>
-        <v>4.5084986054628741E-4</v>
+        <v>4.4060828196181462E-4</v>
       </c>
       <c r="D98">
         <f t="shared" si="14"/>
-        <v>4.7503623126747302E-4</v>
+        <v>4.6424523116135645E-4</v>
       </c>
       <c r="E98" s="4">
         <f t="shared" si="9"/>
@@ -12479,29 +12479,29 @@
       </c>
       <c r="F98" s="3">
         <f t="shared" si="15"/>
-        <v>1.4515473246401456E-4</v>
+        <v>1.4185737400929099E-4</v>
       </c>
       <c r="G98" s="3">
         <f t="shared" si="11"/>
-        <v>1.517531641181663E-5</v>
+        <v>1.4830640356786358E-5</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="12"/>
-        <v>7.9291017489886515E-3</v>
+        <v>7.7489829871243117E-3</v>
       </c>
       <c r="B99">
         <f t="shared" si="8"/>
-        <v>61.011712446298851</v>
+        <v>61.011532327536763</v>
       </c>
       <c r="C99">
         <f t="shared" si="13"/>
-        <v>4.0370856318759266E-4</v>
+        <v>3.945378539625968E-4</v>
       </c>
       <c r="D99">
         <f t="shared" si="14"/>
-        <v>4.2536598359965868E-4</v>
+        <v>4.157033008985633E-4</v>
       </c>
       <c r="E99" s="4">
         <f t="shared" si="9"/>
@@ -12509,29 +12509,29 @@
       </c>
       <c r="F99" s="3">
         <f t="shared" si="15"/>
-        <v>1.2997721328322775E-4</v>
+        <v>1.2702462981684093E-4</v>
       </c>
       <c r="G99" s="3">
         <f t="shared" si="11"/>
-        <v>1.3588776868326458E-5</v>
+        <v>1.3280131213742164E-5</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="12"/>
-        <v>7.1000272032270863E-3</v>
+        <v>6.9387418332732933E-3</v>
       </c>
       <c r="B100">
         <f t="shared" si="8"/>
-        <v>61.010883371752058</v>
+        <v>61.010722086381904</v>
       </c>
       <c r="C100">
         <f t="shared" si="13"/>
-        <v>3.6149640546272822E-4</v>
+        <v>3.5328459446212779E-4</v>
       </c>
       <c r="D100">
         <f t="shared" si="14"/>
-        <v>3.8088930505529649E-4</v>
+        <v>3.7223696180098263E-4</v>
       </c>
       <c r="E100" s="4">
         <f t="shared" si="9"/>
@@ -12539,29 +12539,29 @@
       </c>
       <c r="F100" s="3">
         <f t="shared" si="15"/>
-        <v>1.1638667018343263E-4</v>
+        <v>1.1374281169929112E-4</v>
       </c>
       <c r="G100" s="3">
         <f t="shared" si="11"/>
-        <v>1.2168086568989889E-5</v>
+        <v>1.1891705776500765E-5</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="12"/>
-        <v>6.3576414936341507E-3</v>
+        <v>6.2132202779137669E-3</v>
       </c>
       <c r="B101">
         <f t="shared" si="8"/>
-        <v>61.010140986041542</v>
+        <v>61.009996564825641</v>
       </c>
       <c r="C101">
         <f t="shared" si="13"/>
-        <v>3.236979917661209E-4</v>
+        <v>3.1634481566395801E-4</v>
       </c>
       <c r="D101">
         <f t="shared" si="14"/>
-        <v>3.4106315102572964E-4</v>
+        <v>3.3331550514826376E-4</v>
       </c>
       <c r="E101" s="4">
         <f t="shared" si="9"/>
@@ -12569,29 +12569,29 @@
       </c>
       <c r="F101" s="3">
         <f t="shared" si="15"/>
-        <v>1.0421716741126907E-4</v>
+        <v>1.0184975332672153E-4</v>
       </c>
       <c r="G101" s="3">
         <f t="shared" si="11"/>
-        <v>1.089591225406184E-5</v>
+        <v>1.0648424149998614E-5</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="12"/>
-        <v>5.6928803516676082E-3</v>
+        <v>5.5635599579115175E-3</v>
       </c>
       <c r="B102">
         <f t="shared" si="8"/>
-        <v>61.009476224898748</v>
+        <v>61.009346904504831</v>
       </c>
       <c r="C102">
         <f t="shared" si="13"/>
-        <v>2.8985181675386478E-4</v>
+        <v>2.8326749585512185E-4</v>
       </c>
       <c r="D102">
         <f t="shared" si="14"/>
-        <v>3.0540125817040119E-4</v>
+        <v>2.9846371363749481E-4</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" si="9"/>
@@ -12599,29 +12599,29 @@
       </c>
       <c r="F102" s="3">
         <f t="shared" si="15"/>
-        <v>9.3320119616269182E-5</v>
+        <v>9.1200244637379413E-5</v>
       </c>
       <c r="G102" s="3">
         <f t="shared" si="11"/>
-        <v>9.7567314416860308E-6</v>
+        <v>9.5351161585645914E-6</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="12"/>
-        <v>5.0976272774884476E-3</v>
+        <v>4.9818287491420025E-3</v>
       </c>
       <c r="B103">
         <f t="shared" si="8"/>
-        <v>61.008880971823828</v>
+        <v>61.008765173295338</v>
       </c>
       <c r="C103">
         <f t="shared" si="13"/>
-        <v>2.5954463052807095E-4</v>
+        <v>2.5364877258881024E-4</v>
       </c>
       <c r="D103">
         <f t="shared" si="14"/>
-        <v>2.7346820731489482E-4</v>
+        <v>2.6725605914618692E-4</v>
       </c>
       <c r="E103" s="4">
         <f t="shared" si="9"/>
@@ -12629,29 +12629,29 @@
       </c>
       <c r="F103" s="3">
         <f t="shared" si="15"/>
-        <v>8.3562477675158675E-5</v>
+        <v>8.1664258873903606E-5</v>
       </c>
       <c r="G103" s="3">
         <f t="shared" si="11"/>
-        <v>8.7366434091641674E-6</v>
+        <v>8.5381966059363349E-6</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="12"/>
-        <v>4.564614440302755E-3</v>
+        <v>4.4609239180518657E-3</v>
       </c>
       <c r="B104">
         <f t="shared" ref="B104:B136" si="16">B103-C103-D103-E103</f>
-        <v>61.008347958985979</v>
+        <v>61.008244268463599</v>
       </c>
       <c r="C104">
         <f t="shared" si="13"/>
-        <v>2.324063929984259E-4</v>
+        <v>2.2712701166630755E-4</v>
       </c>
       <c r="D104">
         <f t="shared" si="14"/>
-        <v>2.4487410713328782E-4</v>
+        <v>2.3931150718395087E-4</v>
       </c>
       <c r="E104" s="4">
         <f t="shared" ref="E104:E136" si="17">IF((B104-$E$10)*(1-EXP(0.05*($K$23/$N$23-B104/$E$10)))&gt;0, (B104-$E$10)*(1-EXP(0.05*($K$23/$N$23-B104/$E$10))), 0)</f>
@@ -12659,29 +12659,29 @@
       </c>
       <c r="F104" s="3">
         <f t="shared" si="15"/>
-        <v>7.4825104210418658E-5</v>
+        <v>7.3125365002590925E-5</v>
       </c>
       <c r="G104" s="3">
         <f t="shared" si="11"/>
-        <v>7.8231998750822524E-6</v>
+        <v>7.6454997917612578E-6</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="12"/>
-        <v>4.0873339407685423E-3</v>
+        <v>3.9944853997760437E-3</v>
       </c>
       <c r="B105">
         <f t="shared" si="16"/>
-        <v>61.007870678485851</v>
+        <v>61.007777829944743</v>
       </c>
       <c r="C105">
         <f t="shared" si="13"/>
-        <v>2.0810575582612704E-4</v>
+        <v>2.0337839171039642E-4</v>
       </c>
       <c r="D105">
         <f t="shared" si="14"/>
-        <v>2.1926983371565868E-4</v>
+        <v>2.1428886459515207E-4</v>
       </c>
       <c r="E105" s="4">
         <f t="shared" si="17"/>
@@ -12689,29 +12689,29 @@
       </c>
       <c r="F105" s="3">
         <f t="shared" si="15"/>
-        <v>6.7001318963644252E-5</v>
+        <v>6.5479306130766801E-5</v>
       </c>
       <c r="G105" s="3">
         <f t="shared" si="11"/>
-        <v>7.0052533351651268E-6</v>
+        <v>6.8461312829614791E-6</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="12"/>
-        <v>3.6599583517619941E-3</v>
+        <v>3.5768181439880791E-3</v>
       </c>
       <c r="B106">
         <f t="shared" si="16"/>
-        <v>61.007443302896313</v>
+        <v>61.007360162688435</v>
       </c>
       <c r="C106">
         <f t="shared" si="13"/>
-        <v>1.8634601677355511E-4</v>
+        <v>1.8211295042050871E-4</v>
       </c>
       <c r="D106">
         <f t="shared" si="14"/>
-        <v>1.9634276788409194E-4</v>
+        <v>1.9188261371077183E-4</v>
       </c>
       <c r="E106" s="4">
         <f t="shared" si="17"/>
@@ -12719,29 +12719,29 @@
       </c>
       <c r="F106" s="3">
         <f t="shared" si="15"/>
-        <v>5.9995596267237161E-5</v>
+        <v>5.8632726567697802E-5</v>
       </c>
       <c r="G106" s="3">
         <f t="shared" si="11"/>
-        <v>6.2728212155627084E-6</v>
+        <v>6.1303351453651808E-6</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="12"/>
-        <v>3.2772695675767479E-3</v>
+        <v>3.2028225803212261E-3</v>
       </c>
       <c r="B107">
         <f t="shared" si="16"/>
-        <v>61.007060614111651</v>
+        <v>61.006986167124303</v>
       </c>
       <c r="C107">
         <f t="shared" si="13"/>
-        <v>1.6686149707608269E-4</v>
+        <v>1.630710442341318E-4</v>
       </c>
       <c r="D107">
         <f t="shared" si="14"/>
-        <v>1.7581297822433917E-4</v>
+        <v>1.7181918208418806E-4</v>
       </c>
       <c r="E107" s="4">
         <f t="shared" si="17"/>
@@ -12749,29 +12749,29 @@
       </c>
       <c r="F107" s="3">
         <f t="shared" si="15"/>
-        <v>5.3722398710043251E-5</v>
+        <v>5.2502031984147379E-5</v>
       </c>
       <c r="G107" s="3">
         <f t="shared" si="11"/>
-        <v>5.6169641980941008E-6</v>
+        <v>5.4893750266717312E-6</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="12"/>
-        <v>2.9345950926974538E-3</v>
+        <v>2.8679323544180887E-3</v>
       </c>
       <c r="B108">
         <f t="shared" si="16"/>
-        <v>61.006717939636346</v>
+        <v>61.006651276897983</v>
       </c>
       <c r="C108">
         <f t="shared" si="13"/>
-        <v>1.4941429759825686E-4</v>
+        <v>1.4602017817075101E-4</v>
       </c>
       <c r="D108">
         <f t="shared" si="14"/>
-        <v>1.5742980322218722E-4</v>
+        <v>1.538536022683698E-4</v>
       </c>
       <c r="E108" s="4">
         <f t="shared" si="17"/>
@@ -12779,29 +12779,29 @@
       </c>
       <c r="F108" s="3">
         <f t="shared" si="15"/>
-        <v>4.8105132754994173E-5</v>
+        <v>4.7012368754151268E-5</v>
       </c>
       <c r="G108" s="3">
         <f t="shared" si="11"/>
-        <v>5.0296772418416901E-6</v>
+        <v>4.9154276486681556E-6</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="12"/>
-        <v>2.627750992259645E-3</v>
+        <v>2.5680585743493817E-3</v>
       </c>
       <c r="B109">
         <f t="shared" si="16"/>
-        <v>61.006411095535526</v>
+        <v>61.006351403117542</v>
       </c>
       <c r="C109">
         <f t="shared" si="13"/>
-        <v>1.3379139416835228E-4</v>
+        <v>1.3075216714987956E-4</v>
       </c>
       <c r="D109">
         <f t="shared" si="14"/>
-        <v>1.4096879077381893E-4</v>
+        <v>1.3776652084947604E-4</v>
       </c>
       <c r="E109" s="4">
         <f t="shared" si="17"/>
@@ -12809,29 +12809,29 @@
       </c>
       <c r="F109" s="3">
         <f t="shared" si="15"/>
-        <v>4.3075213559840009E-5</v>
+        <v>4.2096710019423611E-5</v>
       </c>
       <c r="G109" s="3">
         <f t="shared" si="11"/>
-        <v>4.5037919787135002E-6</v>
+        <v>4.4014874160403207E-6</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="12"/>
-        <v>2.3529908076579727E-3</v>
+        <v>2.2995398866805616E-3</v>
       </c>
       <c r="B110">
         <f t="shared" si="16"/>
-        <v>61.006136335350583</v>
+        <v>61.006082884429539</v>
       </c>
       <c r="C110">
         <f t="shared" si="13"/>
-        <v>1.1980203662721E-4</v>
+        <v>1.1708059412439479E-4</v>
       </c>
       <c r="D110">
         <f t="shared" si="14"/>
-        <v>1.2622895770356967E-4</v>
+        <v>1.2336152021876704E-4</v>
       </c>
       <c r="E110" s="4">
         <f t="shared" si="17"/>
@@ -12839,29 +12839,29 @@
       </c>
       <c r="F110" s="3">
         <f t="shared" si="15"/>
-        <v>3.8571227579442535E-5</v>
+        <v>3.7695037315321756E-5</v>
       </c>
       <c r="G110" s="3">
         <f t="shared" si="11"/>
-        <v>4.0328892978625603E-6</v>
+        <v>3.9412809833841896E-6</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="12"/>
-        <v>2.1069598136310313E-3</v>
+        <v>2.0590977726401335E-3</v>
       </c>
       <c r="B111">
         <f t="shared" si="16"/>
-        <v>61.005890304356249</v>
+        <v>61.005842442315199</v>
       </c>
       <c r="C111">
         <f t="shared" si="13"/>
-        <v>1.0727541983724379E-4</v>
+        <v>1.0483853399426345E-4</v>
       </c>
       <c r="D111">
         <f t="shared" si="14"/>
-        <v>1.1303033583147425E-4</v>
+        <v>1.1046272038300593E-4</v>
       </c>
       <c r="E111" s="4">
         <f t="shared" si="17"/>
@@ -12869,29 +12869,29 @@
       </c>
       <c r="F111" s="3">
         <f t="shared" si="15"/>
-        <v>3.4538182728027778E-5</v>
+        <v>3.3753607765252269E-5</v>
       </c>
       <c r="G111" s="3">
         <f t="shared" si="11"/>
-        <v>3.6112210570097467E-6</v>
+        <v>3.5291907423596367E-6</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="12"/>
-        <v>1.8866540582367008E-3</v>
+        <v>1.8437965185293945E-3</v>
       </c>
       <c r="B112">
         <f t="shared" si="16"/>
-        <v>61.005669998600581</v>
+        <v>61.00562714106082</v>
       </c>
       <c r="C112">
         <f t="shared" si="13"/>
-        <v>9.6058598211320466E-5</v>
+        <v>9.3876515508295658E-5</v>
       </c>
       <c r="D112">
         <f t="shared" si="14"/>
-        <v>1.012117746245976E-4</v>
+        <v>9.8912631530036468E-5</v>
       </c>
       <c r="E112" s="4">
         <f t="shared" si="17"/>
@@ -12899,29 +12899,29 @@
       </c>
       <c r="F112" s="3">
         <f t="shared" si="15"/>
-        <v>3.0926836946054692E-5</v>
+        <v>3.0224297899783537E-5</v>
       </c>
       <c r="G112" s="3">
         <f t="shared" si="11"/>
-        <v>3.2336399688822902E-6</v>
+        <v>3.1601862987582058E-6</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="12"/>
-        <v>1.6893836856451462E-3</v>
+        <v>1.6510073717333645E-3</v>
       </c>
       <c r="B113">
         <f t="shared" si="16"/>
-        <v>61.005472728227744</v>
+        <v>61.005434351913784</v>
       </c>
       <c r="C113">
         <f t="shared" si="13"/>
-        <v>8.6014618300408668E-5</v>
+        <v>8.4060696274910956E-5</v>
       </c>
       <c r="D113">
         <f t="shared" si="14"/>
-        <v>9.0628973605152893E-5</v>
+        <v>8.857023113585663E-5</v>
       </c>
       <c r="E113" s="4">
         <f t="shared" si="17"/>
@@ -12929,29 +12929,29 @@
       </c>
       <c r="F113" s="3">
         <f t="shared" si="15"/>
-        <v>2.769309697092659E-5</v>
+        <v>2.7064016086653098E-5</v>
       </c>
       <c r="G113" s="3">
         <f t="shared" ref="G113:G136" si="18">(C113+D113)/B113</f>
-        <v>2.8955368101561662E-6</v>
+        <v>2.8297631062658279E-6</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="12"/>
-        <v>1.5127400939654312E-3</v>
+        <v>1.4783764445391171E-3</v>
       </c>
       <c r="B114">
         <f t="shared" si="16"/>
-        <v>61.005296084635845</v>
+        <v>61.005261720986375</v>
       </c>
       <c r="C114">
         <f t="shared" si="13"/>
-        <v>7.7020846641165003E-5</v>
+        <v>7.5271228591737287E-5</v>
       </c>
       <c r="D114">
         <f t="shared" si="14"/>
-        <v>8.1152720493506014E-5</v>
+        <v>7.9309242127225451E-5</v>
       </c>
       <c r="E114" s="4">
         <f t="shared" si="17"/>
@@ -12959,29 +12959,29 @@
       </c>
       <c r="F114" s="3">
         <f t="shared" si="15"/>
-        <v>2.4797479974303371E-5</v>
+        <v>2.423417639563219E-5</v>
       </c>
       <c r="G114" s="3">
         <f t="shared" si="18"/>
-        <v>2.5927841890190736E-6</v>
+        <v>2.533887509997939E-6</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="12"/>
-        <v>1.3545665270328024E-3</v>
+        <v>1.3237959740179722E-3</v>
       </c>
       <c r="B115">
         <f t="shared" si="16"/>
-        <v>61.005137911068715</v>
+        <v>61.005107140515662</v>
       </c>
       <c r="C115">
         <f t="shared" si="13"/>
-        <v>6.8967472442911987E-5</v>
+        <v>6.7400796148502063E-5</v>
       </c>
       <c r="D115">
         <f t="shared" si="14"/>
-        <v>7.2667313570036297E-5</v>
+        <v>7.1016591084260638E-5</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="17"/>
@@ -12989,29 +12989,29 @@
       </c>
       <c r="F115" s="3">
         <f t="shared" si="15"/>
-        <v>2.220463149082974E-5</v>
+        <v>2.1700227479160006E-5</v>
       </c>
       <c r="G115" s="3">
         <f t="shared" si="18"/>
-        <v>2.3216861868162448E-6</v>
+        <v>2.2689475311294844E-6</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="12"/>
-        <v>1.2129317411975532E-3</v>
+        <v>1.1853785869563418E-3</v>
       </c>
       <c r="B116">
         <f t="shared" si="16"/>
-        <v>61.004996276282704</v>
+        <v>61.004968723128428</v>
       </c>
       <c r="C116">
         <f t="shared" si="13"/>
-        <v>6.1756166837680725E-5</v>
+        <v>6.0353303731349116E-5</v>
       </c>
       <c r="D116">
         <f t="shared" si="14"/>
-        <v>6.5069148999071866E-5</v>
+        <v>6.3591027652403447E-5</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="17"/>
@@ -13019,29 +13019,29 @@
       </c>
       <c r="F116" s="3">
         <f t="shared" si="15"/>
-        <v>1.9882893751876907E-5</v>
+        <v>1.9431230711353109E-5</v>
       </c>
       <c r="G116" s="3">
         <f t="shared" si="18"/>
-        <v>2.0789332608493128E-6</v>
+        <v>2.0317087932013372E-6</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="12"/>
-        <v>1.086106425516727E-3</v>
+        <v>1.0614342557255991E-3</v>
       </c>
       <c r="B117">
         <f t="shared" si="16"/>
-        <v>61.004869450966865</v>
+        <v>61.004844778797043</v>
       </c>
       <c r="C117">
         <f t="shared" si="13"/>
-        <v>5.5298882319185322E-5</v>
+        <v>5.4042703935755324E-5</v>
       </c>
       <c r="D117">
         <f t="shared" si="14"/>
-        <v>5.8265455862356502E-5</v>
+        <v>5.6941888312970534E-5</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="17"/>
@@ -13049,29 +13049,29 @@
       </c>
       <c r="F117" s="3">
         <f t="shared" si="15"/>
-        <v>1.7803919155845449E-5</v>
+        <v>1.7399482439506286E-5</v>
       </c>
       <c r="G117" s="3">
         <f t="shared" si="18"/>
-        <v>1.8615618589729143E-6</v>
+        <v>1.8192750535003389E-6</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="12"/>
-        <v>9.7254208747936854E-4</v>
+        <v>9.5044966361657198E-4</v>
       </c>
       <c r="B118">
         <f t="shared" si="16"/>
-        <v>61.004755886628686</v>
+        <v>61.004733794204796</v>
       </c>
       <c r="C118">
         <f t="shared" si="13"/>
-        <v>4.9516777713924109E-5</v>
+        <v>4.8391946556836423E-5</v>
       </c>
       <c r="D118">
         <f t="shared" si="14"/>
-        <v>5.2173163458962061E-5</v>
+        <v>5.0987989412267853E-5</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="17"/>
@@ -13079,29 +13079,29 @@
       </c>
       <c r="F118" s="3">
         <f t="shared" si="15"/>
-        <v>1.5942324153916942E-5</v>
+        <v>1.5580175731555457E-5</v>
       </c>
       <c r="G118" s="3">
         <f t="shared" si="18"/>
-        <v>1.6669182540762376E-6</v>
+        <v>1.6290528584938267E-6</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="12"/>
-        <v>8.7085214643068819E-4</v>
+        <v>8.5106972777257938E-4</v>
       </c>
       <c r="B119">
         <f t="shared" si="16"/>
-        <v>61.004654196687511</v>
+        <v>61.004634414268828</v>
       </c>
       <c r="C119">
         <f t="shared" si="13"/>
-        <v>4.4339255556810912E-5</v>
+        <v>4.3332037833333069E-5</v>
       </c>
       <c r="D119">
         <f t="shared" si="14"/>
-        <v>4.6717887039803941E-5</v>
+        <v>4.5656635937614463E-5</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="17"/>
@@ -13109,29 +13109,29 @@
       </c>
       <c r="F119" s="3">
         <f t="shared" si="15"/>
-        <v>1.4275379325079385E-5</v>
+        <v>1.3951097492137521E-5</v>
       </c>
       <c r="G119" s="3">
         <f t="shared" si="18"/>
-        <v>1.4926261577196049E-6</v>
+        <v>1.4587198927649553E-6</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="12"/>
-        <v>7.7979500394638121E-4</v>
+        <v>7.6208105410947803E-4</v>
       </c>
       <c r="B120">
         <f t="shared" si="16"/>
-        <v>61.004563139544913</v>
+        <v>61.004545425595055</v>
       </c>
       <c r="C120">
         <f t="shared" si="13"/>
-        <v>3.9703100122811561E-5</v>
+        <v>3.8801198058312843E-5</v>
       </c>
       <c r="D120">
         <f t="shared" si="14"/>
-        <v>4.1833019597971477E-5</v>
+        <v>4.0882733937080516E-5</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="17"/>
@@ -13139,29 +13139,29 @@
       </c>
       <c r="F120" s="3">
         <f t="shared" si="15"/>
-        <v>1.2782731859672936E-5</v>
+        <v>1.2492357248650166E-5</v>
       </c>
       <c r="G120" s="3">
         <f t="shared" si="18"/>
-        <v>1.3365577183836758E-6</v>
+        <v>1.3061966356684168E-6</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="12"/>
-        <v>6.982588843252196E-4</v>
+        <v>6.8239712221542371E-4</v>
       </c>
       <c r="B121">
         <f t="shared" si="16"/>
-        <v>61.004481603425191</v>
+        <v>61.004465741663061</v>
       </c>
       <c r="C121">
         <f t="shared" si="13"/>
-        <v>3.5551705583783314E-5</v>
+        <v>3.4744107271428968E-5</v>
       </c>
       <c r="D121">
         <f t="shared" si="14"/>
-        <v>3.7458918619133797E-5</v>
+        <v>3.6607995746020493E-5</v>
       </c>
       <c r="E121" s="4">
         <f t="shared" si="17"/>
@@ -13169,29 +13169,29 @@
       </c>
       <c r="F121" s="3">
         <f t="shared" si="15"/>
-        <v>1.1446157056393957E-5</v>
+        <v>1.1186144295516343E-5</v>
       </c>
       <c r="G121" s="3">
         <f t="shared" si="18"/>
-        <v>1.1968075505917885E-6</v>
+        <v>1.1696209802017735E-6</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="12"/>
-        <v>6.2524826021011475E-4</v>
+        <v>6.110450192835324E-4</v>
       </c>
       <c r="B122">
         <f t="shared" si="16"/>
-        <v>61.004408592800985</v>
+        <v>61.004394389560041</v>
       </c>
       <c r="C122">
         <f t="shared" si="13"/>
-        <v>3.1834384871800032E-5</v>
+        <v>3.111122981986629E-5</v>
       </c>
       <c r="D122">
         <f t="shared" si="14"/>
-        <v>3.3542177868025672E-5</v>
+        <v>3.2780228313297204E-5</v>
       </c>
       <c r="E122" s="4">
         <f t="shared" si="17"/>
@@ -13199,29 +13199,29 @@
       </c>
       <c r="F122" s="3">
         <f t="shared" si="15"/>
-        <v>1.0249335806955528E-5</v>
+        <v>1.0016510231691811E-5</v>
       </c>
       <c r="G122" s="3">
         <f t="shared" si="18"/>
-        <v>1.0716694784504586E-6</v>
+        <v>1.0473255045393504E-6</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="12"/>
-        <v>5.5987169755382013E-4</v>
+        <v>5.471535612300159E-4</v>
       </c>
       <c r="B123">
         <f t="shared" si="16"/>
-        <v>61.004343216238247</v>
+        <v>61.004330498101908</v>
       </c>
       <c r="C123">
         <f t="shared" si="13"/>
-        <v>2.8505750808113973E-5</v>
+        <v>2.7858209547546615E-5</v>
       </c>
       <c r="D123">
         <f t="shared" si="14"/>
-        <v>3.0034975317345011E-5</v>
+        <v>2.9352695944701125E-5</v>
       </c>
       <c r="E123" s="4">
         <f t="shared" si="17"/>
@@ -13229,29 +13229,29 @@
       </c>
       <c r="F123" s="3">
         <f t="shared" si="15"/>
-        <v>9.1776553445832576E-6</v>
+        <v>8.9691742366504457E-6</v>
       </c>
       <c r="G123" s="3">
         <f t="shared" si="18"/>
-        <v>9.5961570994959107E-7</v>
+        <v>9.3781711929496228E-7</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" si="12"/>
-        <v>5.0133097150400238E-4</v>
+        <v>4.8994265580549307E-4</v>
       </c>
       <c r="B124">
         <f t="shared" si="16"/>
-        <v>61.004284675512125</v>
+        <v>61.004273287196412</v>
       </c>
       <c r="C124">
         <f t="shared" si="13"/>
-        <v>2.5525161940712336E-5</v>
+        <v>2.4945328220157761E-5</v>
       </c>
       <c r="D124">
         <f t="shared" si="14"/>
-        <v>2.6894489256613732E-5</v>
+        <v>2.628354967455354E-5</v>
       </c>
       <c r="E124" s="4">
         <f t="shared" si="17"/>
@@ -13259,29 +13259,29 @@
       </c>
       <c r="F124" s="3">
         <f t="shared" si="15"/>
-        <v>8.2180308276225134E-6</v>
+        <v>8.0313487058614186E-6</v>
       </c>
       <c r="G124" s="3">
         <f t="shared" si="18"/>
-        <v>8.592781880182913E-7</v>
+        <v>8.3975884203284548E-7</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="12"/>
-        <v>4.4891132037171551E-4</v>
+        <v>4.3871377797568531E-4</v>
       </c>
       <c r="B125">
         <f t="shared" si="16"/>
-        <v>61.004232255860927</v>
+        <v>61.004222058318518</v>
       </c>
       <c r="C125">
         <f t="shared" si="13"/>
-        <v>2.2856226327153131E-5</v>
+        <v>2.2337020581146528E-5</v>
       </c>
       <c r="D125">
         <f t="shared" si="14"/>
-        <v>2.4082375454860562E-5</v>
+        <v>2.3535316306308224E-5</v>
       </c>
       <c r="E125" s="4">
         <f t="shared" si="17"/>
@@ -13289,29 +13289,29 @@
       </c>
       <c r="F125" s="3">
         <f t="shared" si="15"/>
-        <v>7.3587455780010913E-6</v>
+        <v>7.1915831194591107E-6</v>
       </c>
       <c r="G125" s="3">
         <f t="shared" si="18"/>
-        <v>7.6943189097350063E-7</v>
+        <v>7.5195347698396902E-7</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" si="12"/>
-        <v>4.0197271864605603E-4</v>
+        <v>3.9284144114196709E-4</v>
       </c>
       <c r="B126">
         <f t="shared" si="16"/>
-        <v>61.004185317259143</v>
+        <v>61.004176185981628</v>
       </c>
       <c r="C126">
         <f t="shared" si="13"/>
-        <v>2.0466357201924964E-5</v>
+        <v>2.0001440110690371E-5</v>
       </c>
       <c r="D126">
         <f t="shared" si="14"/>
-        <v>2.1564298991234097E-5</v>
+        <v>2.1074440876152695E-5</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" si="17"/>
@@ -13319,29 +13319,29 @@
       </c>
       <c r="F126" s="3">
         <f t="shared" si="15"/>
-        <v>6.5893080249956881E-6</v>
+        <v>6.4396242347442012E-6</v>
       </c>
       <c r="G126" s="3">
         <f t="shared" si="18"/>
-        <v>6.8897987858659027E-7</v>
+        <v>6.7332900065097588E-7</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" si="12"/>
-        <v>3.5994206250911288E-4</v>
+        <v>3.5176556020673531E-4</v>
       </c>
       <c r="B127">
         <f t="shared" si="16"/>
-        <v>61.004143286602954</v>
+        <v>61.004135110100641</v>
       </c>
       <c r="C127">
         <f t="shared" si="13"/>
-        <v>1.8326375103569198E-5</v>
+        <v>1.7910070192762132E-5</v>
       </c>
       <c r="D127">
         <f t="shared" si="14"/>
-        <v>1.9309515037766702E-5</v>
+        <v>1.8870876960673124E-5</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="17"/>
@@ -13349,29 +13349,29 @@
       </c>
       <c r="F127" s="3">
         <f t="shared" si="15"/>
-        <v>5.9003236065890974E-6</v>
+        <v>5.7662908981015448E-6</v>
       </c>
       <c r="G127" s="3">
         <f t="shared" si="18"/>
-        <v>6.1693990135258686E-7</v>
+        <v>6.0292547524938721E-7</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="12"/>
-        <v>3.223061724111147E-4</v>
+        <v>3.149846130969657E-4</v>
       </c>
       <c r="B128">
         <f t="shared" si="16"/>
-        <v>61.004105650712809</v>
+        <v>61.004098329153486</v>
       </c>
       <c r="C128">
         <f t="shared" si="13"/>
-        <v>1.6410151602251796E-5</v>
+        <v>1.6037375935527018E-5</v>
       </c>
       <c r="D128">
         <f t="shared" si="14"/>
-        <v>1.7290493474293186E-5</v>
+        <v>1.6897719818747215E-5</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="17"/>
@@ -13379,29 +13379,29 @@
       </c>
       <c r="F128" s="3">
         <f t="shared" si="15"/>
-        <v>5.2833800650020635E-6</v>
+        <v>5.1633619460034197E-6</v>
       </c>
       <c r="G128" s="3">
         <f t="shared" si="18"/>
-        <v>5.5243240954145854E-7</v>
+        <v>5.3988333007677199E-7</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="12"/>
-        <v>2.8860552737669607E-4</v>
+        <v>2.8204951738508376E-4</v>
       </c>
       <c r="B129">
         <f t="shared" si="16"/>
-        <v>61.004071950067733</v>
+        <v>61.004065394057733</v>
       </c>
       <c r="C129">
         <f t="shared" si="13"/>
-        <v>1.469429028327256E-5</v>
+        <v>1.4360492400770309E-5</v>
       </c>
       <c r="D129">
         <f t="shared" si="14"/>
-        <v>1.5482582757945417E-5</v>
+        <v>1.5130877895673086E-5</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="17"/>
@@ -13409,29 +13409,29 @@
       </c>
       <c r="F129" s="3">
         <f t="shared" si="15"/>
-        <v>4.7309447368526492E-6</v>
+        <v>4.6234758284136035E-6</v>
       </c>
       <c r="G129" s="3">
         <f t="shared" si="18"/>
-        <v>4.9466981590864886E-7</v>
+        <v>4.8343286805466053E-7</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <f t="shared" si="12"/>
-        <v>2.5842865436761614E-4</v>
+        <v>2.5255814712305002E-4</v>
       </c>
       <c r="B130">
         <f t="shared" si="16"/>
-        <v>61.004041773194686</v>
+        <v>61.004035902687434</v>
       </c>
       <c r="C130">
         <f t="shared" si="13"/>
-        <v>1.3157841082637193E-5</v>
+        <v>1.2858945429647442E-5</v>
       </c>
       <c r="D130">
         <f t="shared" si="14"/>
-        <v>1.3863708933920328E-5</v>
+        <v>1.3548778672288574E-5</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="17"/>
@@ -13439,29 +13439,29 @@
       </c>
       <c r="F130" s="3">
         <f t="shared" si="15"/>
-        <v>4.2362725805045187E-6</v>
+        <v>4.1400407251312998E-6</v>
       </c>
       <c r="G130" s="3">
         <f t="shared" si="18"/>
-        <v>4.4294688074964326E-7</v>
+        <v>4.3288486919228027E-7</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <f t="shared" si="12"/>
-        <v>2.3140710438324645E-4</v>
+        <v>2.261504230489055E-4</v>
       </c>
       <c r="B131">
         <f t="shared" si="16"/>
-        <v>61.004014751644668</v>
+        <v>61.004009494963327</v>
       </c>
       <c r="C131">
         <f t="shared" si="13"/>
-        <v>1.1782044496260556E-5</v>
+        <v>1.1514401661573449E-5</v>
       </c>
       <c r="D131">
         <f t="shared" si="14"/>
-        <v>1.2414106122485248E-5</v>
+        <v>1.213210527333016E-5</v>
       </c>
       <c r="E131" s="4">
         <f t="shared" si="17"/>
@@ -13469,29 +13469,29 @@
       </c>
       <c r="F131" s="3">
         <f t="shared" si="15"/>
-        <v>3.793323823275685E-6</v>
+        <v>3.7071540637256817E-6</v>
       </c>
       <c r="G131" s="3">
         <f t="shared" si="18"/>
-        <v>3.9663210228460379E-7</v>
+        <v>3.876221764875297E-7</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="12"/>
-        <v>2.0721095379424816E-4</v>
+        <v>2.0250391613912681E-4</v>
       </c>
       <c r="B132">
         <f t="shared" si="16"/>
-        <v>61.003990555494049</v>
+        <v>61.003985848456388</v>
       </c>
       <c r="C132">
         <f t="shared" si="13"/>
-        <v>1.0550102531308343E-5</v>
+        <v>1.03104446900073E-5</v>
       </c>
       <c r="D132">
         <f t="shared" si="14"/>
-        <v>1.1116075182735046E-5</v>
+        <v>1.0863560614831222E-5</v>
       </c>
       <c r="E132" s="4">
         <f t="shared" si="17"/>
@@ -13499,29 +13499,29 @@
       </c>
       <c r="F132" s="3">
         <f t="shared" si="15"/>
-        <v>3.3966902164284107E-6</v>
+        <v>3.3195304502964262E-6</v>
       </c>
       <c r="G132" s="3">
         <f t="shared" si="18"/>
-        <v>3.551600070217394E-7</v>
+        <v>3.4709216144397716E-7</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" si="12"/>
-        <v>1.8554477610527773E-4</v>
+        <v>1.8132991086081452E-4</v>
       </c>
       <c r="B133">
         <f t="shared" si="16"/>
-        <v>61.003968889316333</v>
+        <v>61.003964674451083</v>
       </c>
       <c r="C133">
         <f t="shared" si="13"/>
-        <v>9.4469736093346795E-6</v>
+        <v>9.2323746237574548E-6</v>
       </c>
       <c r="D133">
         <f t="shared" si="14"/>
-        <v>9.9537676130674743E-6</v>
+        <v>9.7276562126582429E-6</v>
       </c>
       <c r="E133" s="4">
         <f t="shared" si="17"/>
@@ -13529,29 +13529,29 @@
       </c>
       <c r="F133" s="3">
         <f t="shared" si="15"/>
-        <v>3.0415290031005071E-6</v>
+        <v>2.9724371366501856E-6</v>
       </c>
       <c r="G133" s="3">
         <f t="shared" si="18"/>
-        <v>3.1802424621916388E-7</v>
+        <v>3.1079997730633235E-7</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" si="12"/>
-        <v>1.6614403490610962E-4</v>
+        <v>1.6236988004839304E-4</v>
       </c>
       <c r="B134">
         <f t="shared" si="16"/>
-        <v>61.00394948857511</v>
+        <v>61.003945714420247</v>
       </c>
       <c r="C134">
         <f t="shared" si="13"/>
-        <v>8.4591889141402361E-6</v>
+        <v>8.2670286060636516E-6</v>
       </c>
       <c r="D134">
         <f t="shared" si="14"/>
-        <v>8.9129920468062451E-6</v>
+        <v>8.7105230731277563E-6</v>
       </c>
       <c r="E134" s="4">
         <f t="shared" si="17"/>
@@ -13559,29 +13559,29 @@
       </c>
       <c r="F134" s="3">
         <f t="shared" si="15"/>
-        <v>2.7235037896033987E-6</v>
+        <v>2.6616362354126011E-6</v>
       </c>
       <c r="G134" s="3">
         <f t="shared" si="18"/>
-        <v>2.8477141409016414E-7</v>
+        <v>2.7830251765466078E-7</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" si="12"/>
-        <v>1.4877185397173725E-4</v>
+        <v>1.4539232838856528E-4</v>
       </c>
       <c r="B135">
         <f t="shared" si="16"/>
-        <v>61.003932116394154</v>
+        <v>61.003928736868566</v>
       </c>
       <c r="C135">
         <f t="shared" si="13"/>
-        <v>7.5746879420919329E-6</v>
+        <v>7.4026201012911651E-6</v>
       </c>
       <c r="D135">
         <f t="shared" si="14"/>
-        <v>7.9810409804243494E-6</v>
+        <v>7.7997423580464078E-6</v>
       </c>
       <c r="E135" s="4">
         <f t="shared" si="17"/>
@@ -13589,29 +13589,29 @@
       </c>
       <c r="F135" s="3">
         <f t="shared" si="15"/>
-        <v>2.4387315999963022E-6</v>
+        <v>2.3833329769740175E-6</v>
       </c>
       <c r="G135" s="3">
         <f t="shared" si="18"/>
-        <v>2.5499551230298227E-7</v>
+        <v>2.4920300666061553E-7</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <f t="shared" si="12"/>
-        <v>1.3321612506922491E-4</v>
+        <v>1.3018996595236758E-4</v>
       </c>
       <c r="B136">
         <f t="shared" si="16"/>
-        <v>61.003916560665232</v>
+        <v>61.003913534506111</v>
       </c>
       <c r="C136">
         <f t="shared" si="13"/>
-        <v>6.7826712467115301E-6</v>
+        <v>6.6285949859043926E-6</v>
       </c>
       <c r="D136">
         <f t="shared" si="14"/>
-        <v>7.1465356184429893E-6</v>
+        <v>6.9841937555156689E-6</v>
       </c>
       <c r="E136" s="4">
         <f t="shared" si="17"/>
@@ -13619,21 +13619,21 @@
       </c>
       <c r="F136" s="3">
         <f t="shared" si="15"/>
-        <v>2.1837354657883168E-6</v>
+        <v>2.1341293765519964E-6</v>
       </c>
       <c r="G136" s="3">
         <f t="shared" si="18"/>
-        <v>2.2833299319893086E-7</v>
+        <v>2.2314615493840663E-7</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F137" s="3">
         <f>SUM(F17:F136)</f>
-        <v>12.228063676814184</v>
+        <v>11.926772815872322</v>
       </c>
       <c r="G137" s="3">
         <f>SUM(G17:G136)</f>
-        <v>0.7773670995944908</v>
+        <v>0.7644675259665269</v>
       </c>
     </row>
   </sheetData>

--- a/Design docs/soil porosity and fc-wp.xlsx
+++ b/Design docs/soil porosity and fc-wp.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Korean" sheetId="1" r:id="rId1"/>
     <sheet name="Updated SAXTON model" sheetId="2" r:id="rId2"/>
-    <sheet name="SAXTON model, Euler model" sheetId="3" r:id="rId3"/>
+    <sheet name="SAXTON model, Euler method" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -2156,11 +2156,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52982272"/>
-        <c:axId val="139310720"/>
+        <c:axId val="99686912"/>
+        <c:axId val="64981824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52982272"/>
+        <c:axId val="99686912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,7 +2169,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139310720"/>
+        <c:crossAx val="64981824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2177,7 +2177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139310720"/>
+        <c:axId val="64981824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2191,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52982272"/>
+        <c:crossAx val="99686912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2240,7 +2240,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SAXTON model, Euler model'!$B$16</c:f>
+              <c:f>'SAXTON model, Euler method'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2254,7 +2254,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'SAXTON model, Euler model'!$B$17:$B$39</c:f>
+              <c:f>'SAXTON model, Euler method'!$B$17:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2342,8 +2342,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50914304"/>
-        <c:axId val="53191808"/>
+        <c:axId val="99685376"/>
+        <c:axId val="64985280"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2353,7 +2353,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SAXTON model, Euler model'!$E$16</c:f>
+              <c:f>'SAXTON model, Euler method'!$E$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2367,7 +2367,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'SAXTON model, Euler model'!$E$17:$E$39</c:f>
+              <c:f>'SAXTON model, Euler method'!$E$17:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2455,11 +2455,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52985344"/>
-        <c:axId val="53192384"/>
+        <c:axId val="101049856"/>
+        <c:axId val="64985856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50914304"/>
+        <c:axId val="99685376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53191808"/>
+        <c:crossAx val="64985280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2476,7 +2476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53191808"/>
+        <c:axId val="64985280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,12 +2487,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50914304"/>
+        <c:crossAx val="99685376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53192384"/>
+        <c:axId val="64985856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,12 +2502,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52985344"/>
+        <c:crossAx val="101049856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="52985344"/>
+        <c:axId val="101049856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,7 +2516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53192384"/>
+        <c:crossAx val="64985856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2568,7 +2568,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SAXTON model, Euler model'!$E$16</c:f>
+              <c:f>'SAXTON model, Euler method'!$E$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2582,7 +2582,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'SAXTON model, Euler model'!$E$17:$E$39</c:f>
+              <c:f>'SAXTON model, Euler method'!$E$17:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2670,11 +2670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53043712"/>
-        <c:axId val="53194112"/>
+        <c:axId val="101050880"/>
+        <c:axId val="99672064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53043712"/>
+        <c:axId val="101050880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,7 +2683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53194112"/>
+        <c:crossAx val="99672064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2691,7 +2691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53194112"/>
+        <c:axId val="99672064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +2702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53043712"/>
+        <c:crossAx val="101050880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4305,11 +4305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53743616"/>
-        <c:axId val="53194688"/>
+        <c:axId val="101935104"/>
+        <c:axId val="99673216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53743616"/>
+        <c:axId val="101935104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4318,7 +4318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53194688"/>
+        <c:crossAx val="99673216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4326,7 +4326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53194688"/>
+        <c:axId val="99673216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4337,7 +4337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53743616"/>
+        <c:crossAx val="101935104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="G21">
         <f ca="1">FLOOR(RAND()*20+1,1)</f>
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -4988,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8574,7 +8574,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9382,8 +9382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9820,7 +9820,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f>($B20-$E$10)*(1-EXP(-$G$10*24)*EXP(-$G$11*24))</f>
         <v>56.868633066222472</v>
       </c>
       <c r="B20">
